--- a/backend/IndiaToday.xlsx
+++ b/backend/IndiaToday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>Heading</t>
   </si>
@@ -28,282 +28,277 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Israel military ‘ready, awaiting instruction’ on Gaza as 2 more hostages freed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel's Military Spokesperson Daniel Hagari on Tuesday said that the military was "ready and determined" for the next stage in the war and was awaiting political instruction.He said Israel was learning from US experience in the Middle East but "our war is on our borders, not thousands of miles from Israel," adding that he was expecting weeks of fighting ahead.Hamas on Monday announced the release of two Israeli hostages who were being held captive in the Gaza Strip for "humanitarian reasons". They also released a video showing the terrorists giving food and water to the old womens before being released from their captivity. Israeli Chief of Staff Lieutenant General Herzi Halevi issued a statement suggesting that Israel had no intention of curbing its strikes on the densely populated Gaza Strip and hinting that it was well prepared for a ground assault."We want to bring Hamas to a state of full dismantling," Halevi said. "The path is a path of unrelenting attacks, damaging Hamas everywhere and in every way.Click here to get live updates of Israel-Hamas waradvertisementHere are the latest developments in the Israel-Hamas conflict:
-As the Israel-Hamas war entered day 17 on Tuesday, the death toll in Gaza from two weeks of air strikes exceeded 5,000, the Palestinian health ministry reported. The total death toll so far stands at 6,400.
-He said Israel was learning from US experience in the Middle East but "our war is on our borders, not thousands of miles from Israel," adding that he was expecting weeks of fighting ahead.Hamas on Monday announced the release of two Israeli hostages who were being held captive in the Gaza Strip for "humanitarian reasons". They also released a video showing the terrorists giving food and water to the old womens before being released from their captivity. Israeli Chief of Staff Lieutenant General Herzi Halevi issued a statement suggesting that Israel had no intention of curbing its strikes on the densely populated Gaza Strip and hinting that it was well prepared for a ground assault."We want to bring Hamas to a state of full dismantling," Halevi said. "The path is a path of unrelenting attacks, damaging Hamas everywhere and in every way.Click here to get live updates of Israel-Hamas waradvertisementHere are the latest developments in the Israel-Hamas conflict:
-As the Israel-Hamas war entered day 17 on Tuesday, the death toll in Gaza from two weeks of air strikes exceeded 5,000, the Palestinian health ministry reported. The total death toll so far stands at 6,400.
-Israeli Chief of Staff Lieutenant General Herzi Halevi issued a statement suggesting that Israel had no intention of curbing its strikes on the densely populated Gaza Strip and hinting that it was well prepared for a ground assault."We want to bring Hamas to a state of full dismantling," Halevi said. "The path is a path of unrelenting attacks, damaging Hamas everywhere and in every way.Click here to get live updates of Israel-Hamas waradvertisementHere are the latest developments in the Israel-Hamas conflict:
-As the Israel-Hamas war entered day 17 on Tuesday, the death toll in Gaza from two weeks of air strikes exceeded 5,000, the Palestinian health ministry reported. The total death toll so far stands at 6,400.
-"We want to bring Hamas to a state of full dismantling," Halevi said. "The path is a path of unrelenting attacks, damaging Hamas everywhere and in every way.Click here to get live updates of Israel-Hamas waradvertisementHere are the latest developments in the Israel-Hamas conflict:
-As the Israel-Hamas war entered day 17 on Tuesday, the death toll in Gaza from two weeks of air strikes exceeded 5,000, the Palestinian health ministry reported. The total death toll so far stands at 6,400.
-Click here to get live updates of Israel-Hamas warHere are the latest developments in the Israel-Hamas conflict:
-As the Israel-Hamas war entered day 17 on Tuesday, the death toll in Gaza from two weeks of air strikes exceeded 5,000, the Palestinian health ministry reported. The total death toll so far stands at 6,400.
+    <t>Big BJP-Congress battle as Chhattisgarh, Madhya Pradesh vote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhya Pradesh and Chhattisgarh will go to polls today in a high-stakes battle between the BJP and Congress. Chhattisgarh will be voting for the second phase of polls, with 958 candidates in the fray for 70 assembly seats across 19 districts. In Madhya Pradesh, more than 2,000 candidates are contesting for 230 seats in the state assembly.Madhya Pradesh Chief Minister Shivraj Singh Chouhan and state Congress chief Kamal Nath are in the fray for today's polls. In Chhattisgarh, meanwhile, the Patan constituency will witness a triangular battle between the ruling Congress, BJP and Janata Congress Chhattisgarh. Congress veteran and Chief Minister Bhupesh Baghel will fight it out against his nephew and BJP's Vijay Baghel. The Janata Congress Chhattisgarh, meanwhile, has fielded the party's supremo and former Chief Minister Ajit Jogi's son, Amit Jogi, in the seat.Meanwhile, firing was reported in Morena district in Madhya Pradesh right after voting commenced on Friday. The incident happened in Mirgham village of Dimmi Vidhan Sabha, in which two people were shot. There was an attempt to influence voting, and two more people were injured in a stampede as well. Voting in the region is underway. A look into key points in the story
+The BJP hopes to retain power in Madhya Pradesh by banking on the success of central and state schemes implemented in the state. Meanwhile, the grand old party is counting on anti-incumbency and corruption accusations against Shivraj Singh Chouhan to shift the gear towards them.
+The BJP has fielded Chouhan from the Budhni constituency, and actor Vikram Mastal will be going against him from Congress's side. Mastal played the role of 'Hanuman' in the 2008 TV serial 'Ramayan 2'. Other bigwigs who will be in the fray today are former Union Minister Narendra Singh Tomar from Dimmi, Union Minister Prahlad Singh Patel from Narsingpur, and former Chief Minister and Congress's state chief Kamal Nath from his home turf of Chhindwara.
+Nath is up against the BJP's Vivek Bunty Sahu, who is the former Bharatiya Janata Yuva Morcha president for Chhindwara district.
+BJP National General Secretary Kailash Vijayvargiya, one of the party heavyweights, is contesting the Indore-1 seat. Congress has pitted former Indore Mayor Sanjay Shukla, who had won the 2018 assembly polls from the constituency, against him.
+</t>
+  </si>
+  <si>
+    <t>elections</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/elections/story/bjp-vs-congress-as-voting-begins-in-madhya-pradesh-and-chhattisgarh-today-2463899-2023-11-17?utm_source=directhp&amp;utm_medium=clicktopstories&amp;utm_campaign=hptopstories</t>
+  </si>
+  <si>
+    <t>Uttarkashi tunnel escape plan sees progress overnight but debris halts drilling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rescue teams in Uttarkashi made significant headway overnight in the ongoing operation to free 40 workers trapped inside the Silkyara Tunnel, with the second and third pipes, each with a diameter of 900 mm and a length of 6 meters, now fully inserted into the debris.The Silkyara Control Room of the Emergency Operation Center said that as of 6 AM on Friday, the advanced auger drilling machine has drilled through 21 metres of the accumulated debris within the tunnel. However, the presence of a hard substance within the debris temporarily halted the drilling process, adding to the complexity of the operation.The high-performance auger drilling machine, weighing 24 tons, was brought in to accelerate the rescue efforts after a landslide caused the collapse of the under-construction tunnel. Officials estimate that drilling will need to continue for approximately 45 to 60 metres to reach the trapped workers. The machine boasts an impressive penetration rate of 5 metres per hour, which is a significant increase from the previous machine's capacity.
+Rescue operations, now in their sixth day, have been marked by continuous communication with the trapped workers to monitor their mental health and provide reassurance. The trapped workers have been receiving food, water, and oxygen through pipes, and are in contact with rescuers via walkie-talkies. A medical facility has been established near the tunnel, and nearby hospitals are on standby.The advanced drilling equipment was introduced following setbacks, including a landslide and the failure of a previous drill machine. The Indian Air Force has played a crucial role in the operation, airlifting the new drilling machine to the site.Experts from Norway and Thailand, known for their experience in similar rescue situations, have been consulted to navigate the fragile mountain terrain effectively.Union Minister VK Singh, who visited the site, expressed optimism about the rescue efforts, stating that the priority is to save all the trapped individuals. "All options are being explored. The safety of workers is paramount. We are taking opinions from international organisations," he said.Professor Arnold Dix, President of the International Tunnelling and Underground Space Association, told India Today TV that the organisation was keeping a close eye on the rescue efforts and was willing to lend all possible assistance.“If the rescue is not affected within the next hours, I will be deploying to India to offer all assistance on behalf of all our member nations. India is one of the world’s leading tunneling nations. We are offering every assistance to India. This is an extremely serious matter, 40 lives are in great peril,” he said.(Inputs by Omkar Bahuguna)Published By: Devika BhattacharyaPublished On: Nov 17, 2023Read |  Uttarkashi tunnel collapse: What is trenchless technology used in rescue opsMust Watch 
+</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/uttarkashi-tunnel-collapse-update-auger-drill-machine-pipe-trapped-workers-expert-teams-2463907-2023-11-17?utm_source=directhp&amp;utm_medium=clicktopstories&amp;utm_campaign=hptopstories</t>
+  </si>
+  <si>
+    <t>Israel says it found Hamas tunnel at Gaza hospital, recovered body of hostage | Top points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Israeli military on Thursday (local time) said it found a tunnel shaft used by Hamas in an outdoor area at Al Shifa Hospital, the biggest medical facility in Gaza. The UN Palestinian refugee agency, on the other hand, said there would be no aid deliveries to the Palestinians in the besieged enclave amid intense fighting between Israeli troops and Hamas terrorists.Israel had conducted a raid on the Al Shifa Hospital on Wednesday, asserting that it was being used by Hamas as a control centre beneath the medical facility. The Israel Defence Forces (IDF) said it found huge caches of weapons, ammunition and explosives at Al Shifa and at Al Quds Hospital, another medical facility in Gaza.The body of a 65-year-old woman who was kidnapped by Hamas on October 7 was found near Al Shifa Hospital, the Israeli military said, CNN reported.The woman, Yehudit Weiss, was kidnapped from the Be'eri neighbourhood by Hamas terrorists on the day when Israel was attacked. Her husband Shmuel was killed during Hamas's attack on October 7, according to The Hostages and Missing Person’s Families Forum.FOLLOW ISRAEL-HAMAS WAR LIVE UPDATES HEREHere are the top developments of the Israel-Hamas war:
+Israel's ally US said it would neither share nor explain the intelligence inputs received on Hamas activities in Al Shifa Hospital.
+"I am not going to talk about specific intelligence that may pass between the two of us," news agency Reuters quoted White House spokesperson John Kirby as saying when asked if Israel had shared any intelligence on its raid at Al Shifa.
+Israel's ally US said it would neither share nor explain the intelligence inputs received on Hamas activities in Al Shifa Hospital.
+"I am not going to talk about specific intelligence that may pass between the two of us," news agency Reuters quoted White House spokesperson John Kirby as saying when asked if Israel had shared any intelligence on its raid at Al Shifa.
+Hamas denounced the Israeli raid on Al Shifa Hospital and rejected claims of using the facility for military purposes. The group claimed it "was a repetition of a blatantly false narrative, demonstrated by the weak and ridiculous performances of the occupation army spokesman".
 </t>
   </si>
   <si>
     <t>world</t>
   </si>
   <si>
-    <t>https://www.indiatoday.in/world/story/israel-hamas-war-un-rights-chief-calls-for-ceasefire-gaza-top-points-2452864-2023-10-24?utm_source=directhp&amp;utm_medium=clicktopstories&amp;utm_campaign=hptopstories</t>
-  </si>
-  <si>
-    <t>VK Pandian’s big elevation after taking retirement as Naveen Patnaik’s secretary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A day after his voluntary retirement, VK Pandian - who served as the private secretary to Odisha Chief Minister Naveen Patnaik - has been given a new role as the Chairman of 5T (Transformational Initiatives) and 'Nabin Odisha' in the Odisha government. According to a statement issued by Additional Chief Secretary Surendra Kumar, Pandian has been appointed to the rank of a cabinet minister and will report directly to Chief Minister Naveen Patnaik.A 2000-batch Odisha cadre IAS officer, Pandian took voluntary retirement from service and received the Central government's nod on the same Monday (October 23). Speculations were rife that he might foray into politics. 
-Seen as Patnaik's 'Man Friday', Pandian has been accused by the opposition of operating the Odisha government on behalf of the Chief Minister. Pandian, who held the position of Patnaik's aide since 2011, recently came under the spotlight for his whirlwind tour to various districts using the state chopper. The Bharatiya Janata Party (BJP) and Congress in the opposition had aimed Pandian, who hails from Tamil Nadu, for flouting service condition norms.Pandian played a vital role as Patnaik's aide in framing Odisha government initiatives, including the Mo Sarkar, the Srimandir Parikrama project, and Biju Swasthya Kalyan Yojna (BSKY), among others. He has also been involved in government projects around transforming hospitals and high schools, and restoring ancient and revered temples across the state.Congress jabs Pandian over voluntary retirementCongress senior leader Jairam Ramesh took a jibe at Pandian on Monday after news of the Centre's approval of his voluntary retirement emerged. Taking to X (formerly Twitter), Ramesh said that what was so far unofficial will now become official.He further said that the situation in Odisha was "strange" since Patnaik was an "absentee landlord" while his "chief aide functioned as the state's CEO".Edited By: Shreyasi JhaPublished On: Oct 24, 2023Must Watch 
-</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/naveen-patnaik-aide-vk-pandian-new-role-cabinet-ministers-rank-day-after-retirement-political-entry-2452919-2023-10-24?utm_source=directhp&amp;utm_medium=clicktopstories&amp;utm_campaign=hptopstories</t>
-  </si>
-  <si>
-    <t>'Right to self-defence...': Is China shifting stance on Israel-Hamas war?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China will do its utmost when it comes to contributing to Palestinian-Israeli reconciliation, its foreign minister told his Israeli counterpart in a phone call, according to Chinese state media.China will firmly support any resolution as long as it is conducive to peace, Foreign Minister Wang Yi told Israel's Eli Cohen, calling the conflict a "major choice between war and peace", state media said on Tuesday.Wang also called for Israel to take effective measures to protect the safety of Chinese citizens and institutions in the Middle East, adding that "all countries have the right to self-defence, but they should abide by international humanitarian law and protect the safety of civilians".China has condemned violence and attacks on civilians in the conflict, and while Wang has declared Israel's actions "beyond the scope of self-defence", he has not named Hamas in his comments.In a separate phone conversation with Palestinian Foreign Minister Riyad al-Maliki, Wang said he "deeply sympathises" with the people of Gaza, adding that they need security and efforts to promote peace, not weapons or geopolitical calculations.China calls for the convening of a "more authoritative, wide-ranging and effective international peace conference" soon, Wang said.Wang's comments come days before he is scheduled to visit Washington on October 26-28. He will meet with US Secretary of State Antony Blinken and President Joe Biden's national security advisor Jake Sullivan, senior Biden administration officials said on Monday, declining to say if he will meet with Biden as well.The conflict has put China and Russia in separate camps from the United States over the conflict.China and Russia share the same position that the legitimate national rights of the Palestinian people have not been met. While the US has denounced the Hamas attack, fully supporting Israel's right to defend itself.China, which has repeatedly urged a ceasefire, also made clear its warships in the Middle East were part of routine escort missions and friendly visits, and not an interference in the conflict, state-controlled Global Times said.The newspaper said the spokesperson at the Chinese embassy in the United States has called for an end to the "groundless hyping" over the deployment of Chinese warships to the Middle East in response to reports about several warships stationed in the region.Edited By: Shweta KumariPublished On: Oct 24, 2023ALSO READ |  Hamas frees 2 hostages on 'health grounds', Israel warns of 'unrelenting attacks'
-advertisementChina will do its utmost when it comes to contributing to Palestinian-Israeli reconciliation, its foreign minister told his Israeli counterpart in a phone call, according to Chinese state media.China will firmly support any resolution as long as it is conducive to peace, Foreign Minister Wang Yi told Israel's Eli Cohen, calling the conflict a "major choice between war and peace", state media said on Tuesday.Wang also called for Israel to take effective measures to protect the safety of Chinese citizens and institutions in the Middle East, adding that "all countries have the right to self-defence, but they should abide by international humanitarian law and protect the safety of civilians".China has condemned violence and attacks on civilians in the conflict, and while Wang has declared Israel's actions "beyond the scope of self-defence", he has not named Hamas in his comments.In a separate phone conversation with Palestinian Foreign Minister Riyad al-Maliki, Wang said he "deeply sympathises" with the people of Gaza, adding that they need security and efforts to promote peace, not weapons or geopolitical calculations.China calls for the convening of a "more authoritative, wide-ranging and effective international peace conference" soon, Wang said.Wang's comments come days before he is scheduled to visit Washington on October 26-28. He will meet with US Secretary of State Antony Blinken and President Joe Biden's national security advisor Jake Sullivan, senior Biden administration officials said on Monday, declining to say if he will meet with Biden as well.The conflict has put China and Russia in separate camps from the United States over the conflict.China and Russia share the same position that the legitimate national rights of the Palestinian people have not been met. While the US has denounced the Hamas attack, fully supporting Israel's right to defend itself.China, which has repeatedly urged a ceasefire, also made clear its warships in the Middle East were part of routine escort missions and friendly visits, and not an interference in the conflict, state-controlled Global Times said.The newspaper said the spokesperson at the Chinese embassy in the United States has called for an end to the "groundless hyping" over the deployment of Chinese warships to the Middle East in response to reports about several warships stationed in the region.Edited By: Shweta KumariPublished On: Oct 24, 2023ALSO READ |  Hamas frees 2 hostages on 'health grounds', Israel warns of 'unrelenting attacks'
-advertisementChina will firmly support any resolution as long as it is conducive to peace, Foreign Minister Wang Yi told Israel's Eli Cohen, calling the conflict a "major choice between war and peace", state media said on Tuesday.Wang also called for Israel to take effective measures to protect the safety of Chinese citizens and institutions in the Middle East, adding that "all countries have the right to self-defence, but they should abide by international humanitarian law and protect the safety of civilians".China has condemned violence and attacks on civilians in the conflict, and while Wang has declared Israel's actions "beyond the scope of self-defence", he has not named Hamas in his comments.In a separate phone conversation with Palestinian Foreign Minister Riyad al-Maliki, Wang said he "deeply sympathises" with the people of Gaza, adding that they need security and efforts to promote peace, not weapons or geopolitical calculations.China calls for the convening of a "more authoritative, wide-ranging and effective international peace conference" soon, Wang said.Wang's comments come days before he is scheduled to visit Washington on October 26-28. He will meet with US Secretary of State Antony Blinken and President Joe Biden's national security advisor Jake Sullivan, senior Biden administration officials said on Monday, declining to say if he will meet with Biden as well.The conflict has put China and Russia in separate camps from the United States over the conflict.China and Russia share the same position that the legitimate national rights of the Palestinian people have not been met. While the US has denounced the Hamas attack, fully supporting Israel's right to defend itself.China, which has repeatedly urged a ceasefire, also made clear its warships in the Middle East were part of routine escort missions and friendly visits, and not an interference in the conflict, state-controlled Global Times said.The newspaper said the spokesperson at the Chinese embassy in the United States has called for an end to the "groundless hyping" over the deployment of Chinese warships to the Middle East in response to reports about several warships stationed in the region.Edited By: Shweta KumariPublished On: Oct 24, 2023ALSO READ |  Hamas frees 2 hostages on 'health grounds', Israel warns of 'unrelenting attacks'
-advertisementWang also called for Israel to take effective measures to protect the safety of Chinese citizens and institutions in the Middle East, adding that "all countries have the right to self-defence, but they should abide by international humanitarian law and protect the safety of civilians".China has condemned violence and attacks on civilians in the conflict, and while Wang has declared Israel's actions "beyond the scope of self-defence", he has not named Hamas in his comments.In a separate phone conversation with Palestinian Foreign Minister Riyad al-Maliki, Wang said he "deeply sympathises" with the people of Gaza, adding that they need security and efforts to promote peace, not weapons or geopolitical calculations.China calls for the convening of a "more authoritative, wide-ranging and effective international peace conference" soon, Wang said.Wang's comments come days before he is scheduled to visit Washington on October 26-28. He will meet with US Secretary of State Antony Blinken and President Joe Biden's national security advisor Jake Sullivan, senior Biden administration officials said on Monday, declining to say if he will meet with Biden as well.The conflict has put China and Russia in separate camps from the United States over the conflict.China and Russia share the same position that the legitimate national rights of the Palestinian people have not been met. While the US has denounced the Hamas attack, fully supporting Israel's right to defend itself.China, which has repeatedly urged a ceasefire, also made clear its warships in the Middle East were part of routine escort missions and friendly visits, and not an interference in the conflict, state-controlled Global Times said.The newspaper said the spokesperson at the Chinese embassy in the United States has called for an end to the "groundless hyping" over the deployment of Chinese warships to the Middle East in response to reports about several warships stationed in the region.Edited By: Shweta KumariPublished On: Oct 24, 2023ALSO READ |  Hamas frees 2 hostages on 'health grounds', Israel warns of 'unrelenting attacks'
-advertisementChina has condemned violence and attacks on civilians in the conflict, and while Wang has declared Israel's actions "beyond the scope of self-defence", he has not named Hamas in his comments.In a separate phone conversation with Palestinian Foreign Minister Riyad al-Maliki, Wang said he "deeply sympathises" with the people of Gaza, adding that they need security and efforts to promote peace, not weapons or geopolitical calculations.China calls for the convening of a "more authoritative, wide-ranging and effective international peace conference" soon, Wang said.Wang's comments come days before he is scheduled to visit Washington on October 26-28. He will meet with US Secretary of State Antony Blinken and President Joe Biden's national security advisor Jake Sullivan, senior Biden administration officials said on Monday, declining to say if he will meet with Biden as well.The conflict has put China and Russia in separate camps from the United States over the conflict.China and Russia share the same position that the legitimate national rights of the Palestinian people have not been met. While the US has denounced the Hamas attack, fully supporting Israel's right to defend itself.China, which has repeatedly urged a ceasefire, also made clear its warships in the Middle East were part of routine escort missions and friendly visits, and not an interference in the conflict, state-controlled Global Times said.The newspaper said the spokesperson at the Chinese embassy in the United States has called for an end to the "groundless hyping" over the deployment of Chinese warships to the Middle East in response to reports about several warships stationed in the region.Edited By: Shweta KumariPublished On: Oct 24, 2023ALSO READ |  Hamas frees 2 hostages on 'health grounds', Israel warns of 'unrelenting attacks'
-advertisementIn a separate phone conversation with Palestinian Foreign Minister Riyad al-Maliki, Wang said he "deeply sympathises" with the people of Gaza, adding that they need security and efforts to promote peace, not weapons or geopolitical calculations.China calls for the convening of a "more authoritative, wide-ranging and effective international peace conference" soon, Wang said.Wang's comments come days before he is scheduled to visit Washington on October 26-28. He will meet with US Secretary of State Antony Blinken and President Joe Biden's national security advisor Jake Sullivan, senior Biden administration officials said on Monday, declining to say if he will meet with Biden as well.The conflict has put China and Russia in separate camps from the United States over the conflict.China and Russia share the same position that the legitimate national rights of the Palestinian people have not been met. While the US has denounced the Hamas attack, fully supporting Israel's right to defend itself.China, which has repeatedly urged a ceasefire, also made clear its warships in the Middle East were part of routine escort missions and friendly visits, and not an interference in the conflict, state-controlled Global Times said.The newspaper said the spokesperson at the Chinese embassy in the United States has called for an end to the "groundless hyping" over the deployment of Chinese warships to the Middle East in response to reports about several warships stationed in the region.Edited By: Shweta KumariPublished On: Oct 24, 2023ALSO READ |  Hamas frees 2 hostages on 'health grounds', Israel warns of 'unrelenting attacks'
-advertisementChina calls for the convening of a "more authoritative, wide-ranging and effective international peace conference" soon, Wang said.Wang's comments come days before he is scheduled to visit Washington on October 26-28. He will meet with US Secretary of State Antony Blinken and President Joe Biden's national security advisor Jake Sullivan, senior Biden administration officials said on Monday, declining to say if he will meet with Biden as well.The conflict has put China and Russia in separate camps from the United States over the conflict.China and Russia share the same position that the legitimate national rights of the Palestinian people have not been met. While the US has denounced the Hamas attack, fully supporting Israel's right to defend itself.China, which has repeatedly urged a ceasefire, also made clear its warships in the Middle East were part of routine escort missions and friendly visits, and not an interference in the conflict, state-controlled Global Times said.The newspaper said the spokesperson at the Chinese embassy in the United States has called for an end to the "groundless hyping" over the deployment of Chinese warships to the Middle East in response to reports about several warships stationed in the region.Edited By: Shweta KumariPublished On: Oct 24, 2023ALSO READ |  Hamas frees 2 hostages on 'health grounds', Israel warns of 'unrelenting attacks'
-advertisementWang's comments come days before he is scheduled to visit Washington on October 26-28. He will meet with US Secretary of State Antony Blinken and President Joe Biden's national security advisor Jake Sullivan, senior Biden administration officials said on Monday, declining to say if he will meet with Biden as well.The conflict has put China and Russia in separate camps from the United States over the conflict.China and Russia share the same position that the legitimate national rights of the Palestinian people have not been met. While the US has denounced the Hamas attack, fully supporting Israel's right to defend itself.China, which has repeatedly urged a ceasefire, also made clear its warships in the Middle East were part of routine escort missions and friendly visits, and not an interference in the conflict, state-controlled Global Times said.The newspaper said the spokesperson at the Chinese embassy in the United States has called for an end to the "groundless hyping" over the deployment of Chinese warships to the Middle East in response to reports about several warships stationed in the region.Edited By: Shweta KumariPublished On: Oct 24, 2023ALSO READ |  Hamas frees 2 hostages on 'health grounds', Israel warns of 'unrelenting attacks'
-advertisementThe conflict has put China and Russia in separate camps from the United States over the conflict.China and Russia share the same position that the legitimate national rights of the Palestinian people have not been met. While the US has denounced the Hamas attack, fully supporting Israel's right to defend itself.China, which has repeatedly urged a ceasefire, also made clear its warships in the Middle East were part of routine escort missions and friendly visits, and not an interference in the conflict, state-controlled Global Times said.The newspaper said the spokesperson at the Chinese embassy in the United States has called for an end to the "groundless hyping" over the deployment of Chinese warships to the Middle East in response to reports about several warships stationed in the region.Edited By: Shweta KumariPublished On: Oct 24, 2023ALSO READ |  Hamas frees 2 hostages on 'health grounds', Israel warns of 'unrelenting attacks'
-advertisementChina and Russia share the same position that the legitimate national rights of the Palestinian people have not been met. While the US has denounced the Hamas attack, fully supporting Israel's right to defend itself.China, which has repeatedly urged a ceasefire, also made clear its warships in the Middle East were part of routine escort missions and friendly visits, and not an interference in the conflict, state-controlled Global Times said.The newspaper said the spokesperson at the Chinese embassy in the United States has called for an end to the "groundless hyping" over the deployment of Chinese warships to the Middle East in response to reports about several warships stationed in the region.Edited By: Shweta KumariPublished On: Oct 24, 2023ALSO READ |  Hamas frees 2 hostages on 'health grounds', Israel warns of 'unrelenting attacks'
-advertisementChina, which has repeatedly urged a ceasefire, also made clear its warships in the Middle East were part of routine escort missions and friendly visits, and not an interference in the conflict, state-controlled Global Times said.The newspaper said the spokesperson at the Chinese embassy in the United States has called for an end to the "groundless hyping" over the deployment of Chinese warships to the Middle East in response to reports about several warships stationed in the region.Edited By: Shweta KumariPublished On: Oct 24, 2023ALSO READ |  Hamas frees 2 hostages on 'health grounds', Israel warns of 'unrelenting attacks'
-advertisementThe newspaper said the spokesperson at the Chinese embassy in the United States has called for an end to the "groundless hyping" over the deployment of Chinese warships to the Middle East in response to reports about several warships stationed in the region.Edited By: Shweta KumariPublished On: Oct 24, 2023ALSO READ |  Hamas frees 2 hostages on 'health grounds', Israel warns of 'unrelenting attacks'
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/world/story/israel-palestine-conflict-china-will-do-utmost-for-palestine-israel-reconciliation-foreign-minister-2452975-2023-10-24?utm_source=directhp&amp;utm_medium=clicktopstories&amp;utm_campaign=hptopstories</t>
-  </si>
-  <si>
-    <t>Same-sex marriage judgment a vote of conscience, stand by it, says Chief Justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chief Justice of India (CJI) DY Chandrachud on Monday said that he stands by his minority opinion in the recent same-sex marriage ruling by the Supreme Court.CJI Chandrachud said this at the 3rd Comparative Constitutional Law discussion co-hosted by Georgetown University Law Center, Washington DC and Society for Democratic Rights (SDR), New Delhi, Bar and Bench reported.The Chief Justice, at the event, said that often verdicts rendered on issues of constitutional importance are a “vote of conscience” and that he stands by his minority judgment in the same-sex marriage case."Sometimes it is a vote of the conscience and vote of the constitution and I stand by what I said," he said.The Chief Justice of India explained his judgment saying, “I was in minority where I held queer couples can adopt if they are together and then three of my colleagues differed that not allowing queer couples to adopt was discriminatory but then it was for the parliament to decide this."Speaking at the event, CJI also explained how the Supreme Court's 2018 decision to decriminalise consensual homosexual sex had led to petitions to recognise same-sex marriage.All the judges on the five-member Constitution bench agreed that modifying laws to bring marriage equality falls within the role of the Parliament.However, a difference of opinion among the judges was there on the question of the right to civil union and adoption rights.While the CJI and Justice SK Kaul were in favour of recognising same-sex unions, the other three judges of the bench had a different opinion.The Supreme Court on October 17 refused to grant legal recognition to same-sex marriages in the country in its verdict. In a unanimous decision by the five-judge constitution bench, the bench said that there was no fundamental right to marry.The top court said it has referred the decision regarding legislation of same-sex marriage to Parliament.Edited By: Manisha PandeyPublished On: Oct 24, 2023ALSO READ  |  Same-sex marriage verdict: What Supreme Court judges agreed and disagreed uponTrending Reel 
+    <t>https://www.indiatoday.in/world/story/israel-hamas-war-updates-tunnel-shaft-al-shifa-hospital-gaza-weapons-ammunition-un-aid-rafah-crossing-2463898-2023-11-17?utm_source=directhp&amp;utm_medium=clicktopstories&amp;utm_campaign=hptopstories</t>
+  </si>
+  <si>
+    <t>Delhi's air quality remains in 'severe' category, respite unlikely in coming days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The air quality in Delhi and its adjoining areas continued to remain in the severe category as a thick layer of poisonous smog blanketed the city on Friday morning. The national capital's Air Quality Index (AQI) was recorded at 404 on Friday morning, according to System of Air Quality and Weather Forecasting And Research (SAFAR) website.An official from the India Meteorological Department (IMD) on Thursday said that calm winds and lower temperatures in Delhi have created an environment conducive to the accumulation of pollutants, indicating that the situation is unlikely to improve in the coming days.The average AQI in Delhi, measured at 4 pm daily, was registered at 419 on Thursday. Preceding values were 401 on Wednesday, 397 on Tuesday, 358 on Monday, 218 on Sunday, 220 on Saturday, and 279 the previous Friday.Persistently categorised as 'very poor,' the air quality in Delhi on Thursday was significantly affected by vehicular emissions, which constituted 25 per cent of the total pollution, according to the data provided by the Delhi government and the Indian Institute of Technology Kanpur.Under the direction of Environment Minister Gopal Rai, the Delhi government established a Special Task Force on Thursday. This six-member team is tasked with enforcing regulations, facilitating monitoring efforts, and compiling reports to address the deteriorating AQI.The two experimental smog towers installed in Delhi, have not been able to reduce the air pollution in the city, the Delhi Pollution Control Committee (DPCC) told the National Green Tribunal (NGT). Moreover, the costly maintenance of these giant air purifiers lacks merit, it added.The air quality in Delhi saw a significant deterioration after Diwali, notwithstanding the implementation of the Graded Response Action Plan (GRAP) stage 4 by the Delhi government.Analytical data from a system established by the Indian Institute of Tropical Meteorology in Pune stated that agricultural stubble burning was responsible for 23 per cent of the air pollution in the capital on the preceding Wednesday. Projections indicated a reduction in this contribution to 11 per cent on Thursday and a further decline to 4 per cent on Friday.Published By: Aishwarya DakhorePublished On: Nov 17, 2023ALSO READ  |  In pics | Delhi chokes on toxic air, thick fog reduces visibilityMust Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/cities/delhi/story/delhi-air-quality-aqi-pollution-severe-category-respite-unlikely-coming-days-delhi-ncr-2463909-2023-11-17?utm_source=directhp&amp;utm_medium=clicktopstories&amp;utm_campaign=hptopstories</t>
+  </si>
+  <si>
+    <t>'You can **** off back to India': Sikh man racially abused in Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Sikh man in Australia has been the victim of racial abuse over the past two-three months. The miscreants have smeared dog excrement on his car door handles on several occasions and have also written threat letters asking him to “go home”, as per a local media report.The man, identified as Jarnail Singh, runs a popular Indian restaurant in Australia’s Hobart.Singh had found his car door handles smeared with dog excrement for several days in a row, the Australian Broadcasting Corporation reported. He then found a “go home, Indian” graffiti drawn on his driveway.He reported both the incident to the police.Soon after, Singh started receiving threat letters. The first letter was filled with racist comments. Singh reported the matter to the police.A month later, he received another letter. It contained comments like "you can **** off back to India" and also threats of damage to his car, at either his workplace or his home. Jarnail Singh’s car was then scratched outside his workplace."It's mentally very stressful when it comes to your house, and particularly [being targeted] with your name on it," he was quoted as saying by ABC."This kind of thing has to be stopped. Definitely, we do need a change," Singh added.Meanwhile, Tasmania Police Commander Jason Elmer said the incidents had been reported to police and investigations were underway.Commander Elmer said there was "no excuse for any form of verbal or physical harassment" in the community.Published By: Anuja JhaPublished On: Nov 16, 2023ALSO READ |  Indian-origin man escapes jail time for drunken attack on neighbour in UK
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/world/indians-abroad/story/sikh-man-in-australia-faces-racial-abuse-car-driveway-vandalised-threat-letters-2463777-2023-11-16</t>
+  </si>
+  <si>
+    <t>'Consumers of scotch whiskey are educated...': Madhya Pradesh High Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Madhya Pradesh High Court on Thursday stated that consumers of scotch whiskey are educated and that they belong to an affluent class of society. They can easily distinguish between bottles of two different brands, the court added.  The court made the observation while rejecting Liquor company, Pernod Ricard's appeal to prevent an Indore-based company - JK Enterprises - from manufacturing beverages under the 'London Pride' mark, according to a report by Bar &amp; Bench.Ricard has requested the court for a temporary injunction against JK Enterprises, claiming they have violated the 'Blenders Pride' trademark and the appearance of the 'Imperial Blue' bottle.Ricard has accused JK Enterprises of using the ‘London Pride’ mark to deceive its customers.The division bench comprising Justice Sushrut Arvind Dharmadhikari and Justice Pranay Verma said that the products of the two brands involve "premium" or "ultra premium" whiskey whose consumers are "educated and discerning type".“It can be safely presumed with a sufficient deal of certainty that the consumers of such products would be mostly literate and having reasonable intelligence to distinguish between the bottles of Blenders Pride/Imperial Blue and that of London Pride,” the bench added.A court in Indore had earlier dismissed Ricard’s application for a temporary injunction. In response, Ricard said they have been using the ‘Blenders Pride’ mark since 1995.It also claimed that JK Enterprises was selling its whiskey by putting a label, using packaging, appearance, and trade dress that was deceptively similar to Pernod Ricard's 'Imperial Blue' whiskey.Comparing the bottles of both Imperial Blue and London Pride, the court observed that the overall appearance of the defendant (JK Enterprises) mark cannot be said to be deceptively similar to the marks of Ricard.The court also said that the shape of the bottles were different. With respect to their boxes, the court said a customer can easily make out the difference.The bench said, “Examining the marks of plaintiffs with the mark of defendant as a whole, neither there is any visual nor phonetic nor structural similarity between any of the boxes or bottles of the plaintiffs with that of the boxes or bottles of the defendant."In its hearing, the court also noted that Pernod Ricard does not possess any registration in respect to the colours used in its Imperial Blue mark or in any individual part of the design, including the dome shape.The court further said, with the use of the word ‘Pride’ by the defendant, there cannot be any misconception or misapprehension in the mind of the consumer.The High Court found no error in the trial court’s observation that there was no similarity between the two marks and further directed it to ensure the suit filed by Pernod Ricard be decided within nine months.Published By: Ashmita SahaPublished On: Nov 17, 2023READ |  Empowering women and strengthening communities: Pernod Ricard India’s efforts towards transforming IndiaREAD |  Soaring high: Indian whiskies growing faster than scotchMust Watch 
 </t>
   </si>
   <si>
     <t>law</t>
   </si>
   <si>
-    <t>https://www.indiatoday.in/law/story/same-sex-marriage-judgment-vote-of-conscience-stand-by-it-says-chief-justice-chandrachud-2452939-2023-10-24?utm_source=directhp&amp;utm_medium=clicktopstories&amp;utm_campaign=hptopstories</t>
-  </si>
-  <si>
-    <t>'Meiteis, Kukis were living together but...': RSS chief in Dussehra speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSS chief Mohan Bhagwat on Tuesday said the Manipur violence was orchestrated, and blamed “outside forces” for the situation in the north eastern state.“Meiteis and Kukis were living together for a long time there. It is a border state. Who benefits from such secessionism and internal conflict? Outside forces also benefit. Were people from outside involved in what happened there,” Bhagwat asked.Addressing the RSS Dussehra rally at Nagpur, Bhagwat also said cultural Marxists and woke elements are using their influence in media and academia to spoil the country’s education and culture.He said the idol of Lord Ram will be installed at Ayodhya temple on January 22, and asked people to organise programmes at temples across the country to celebrate.On the Manipur situation, Bhagwat said, "Union Home Minister Amit Shah was in Manipur for three days. Who actually fueled the conflict? It (violence) is not happening, it is being made to happen.""Which foreign powers may be interested in taking advantage of unrest and instability in Manipur? Does the geopolitics of south east Asia also have a role in these events," he asked.“When peace restoration is in sight, some incident occurs. It widens the gap between the communities. Who is behind the people who were doing such acts? Who is instigating the violence?” he asked.The RSS chief said he was proud of the Sangh workers who worked in Manipur to restore peace.Bhagwat cautioned against attempts to garner votes by inflaming emotions ahead of 2024 general elections.He asked people to vote keeping in mind unity, integrity, identity and development of the country.He referred to the use of "toolkits" that incite violence and create mutual mistrust and hatred. “Those who wish for unity cannot insist that all problems should first end before we think about unity. We will have to work peacefully and with restraint, without getting distracted by sporadic events,” he said.“Three elements, devotion to the motherland, pride in forefathers, and common culture, make us one nation by tying together all diversities of language, region, religion, sect, caste and sub-caste,” Bhagwat said, adding that even those who follow faiths originating from outside India should uphold these elements.Bhagwat said cultural Marxists and woke elements promote anarchy, chaos and corruption. With their influence in media, academia and other sectors, they seek to disrupt societal orderliness, morality, culture, dignity, and restraint, he added.Lauding the government for successfully hosting the G20 Summit, Bhagwat said, “Everyone witnessed Bharat’s genuine goodwill and diplomatic tact in getting the African Union accepted as a member.”“By successfully holding the G20 Summit, our leadership has done a commendable job of firmly establishing Bharat as a major nation on the global stage," Bhagwat said.“The desire to preserve the identity of Bharat and the identity of the Hindu society is only natural. It is no surprise, then, that a crisis-ridden world expects Bharat to emerge with a new vision based on its own value systems, to meet the contemporary needs and challenges of the globe,” he said.“The world is facing the scourge of fanaticism, arrogance, and hysteria stemming from religious sectarianism. Any solution to conflicts like the war in Ukraine or the Gaza Strip, which arise due to a clash of interests and extremism, remains elusive,” he said.Edited By: Aishwarya DakhorePublished On: Oct 24, 2023ALSO READ |  Manipur High Court Acting Chief Justice among 18 judges shifted by Supreme CourtMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/meiteis-kukis-were-living-together-but-rss-chief-in-dussehra-speech-2452980-2023-10-24?utm_source=directhp&amp;utm_medium=clicktopstories&amp;utm_campaign=hptopstories</t>
-  </si>
-  <si>
-    <t>'$10k, apartment for every hostage taken': Israel releases Hamas terrorist's video</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In a video released by the Israel Securities Authority (ISA) on Monday, some men, purportedly Hamas terrorists, are confessing their involvement in the deadly terror attacks in southern Israel launched on October 7.In the video, the men claim that they were promised a stipend by Hamas for taking civilian hostages from Israel to Gaza."Whoever kidnaps a hostage and brings them to Gaza is to get a stipend of USD 10,000 and an apartment," a Hamas terrorist is purportedly heard saying in the video.The man further informs that he and others like him were instructed to kidnap more elderly women and children. They were also asked to "cleanse the houses and kidnap as many prisoners as possible", one of the terrorists said."Her (a victim's) dog came out and I shot him," a terrorist is heard saying further in the video, adding, "Her body was lying on the floor, I shot her too. The commander yelled at me, saying (that) I was wasting bullets on a corpse."Another terrorist confesses to burning down two houses during the attack. "We finished what we came to do and then burned down two houses," he says.The video was released with a statement by the ISA wherein it mentioned that a number of "themes", describing the nature and manner of crimes, have come up repeatedly during their course of investigation of the October 7 attacks.The ISA further said that the hired men confessing in the videos were on the ground, while the senior commanders of the military wing of Hamas stayed in hiding, giving instructions.As the Israel-Hamas war entered its 17th day today, the Palestinian health ministry said the Gaza death toll had topped 5,000 in two weeks of Israeli air strikes in response to Hamas' October 7 attack on southern Israel in which the Islamist militant group killed more than 1,400 people. The total death toll now stands at 6,400.Edited By: Aishwarya DakhorePublished On: Oct 24, 2023ALSO READ |  Hamas frees 2 hostages on 'health grounds', Israel warns of 'unrelenting attacks'Must Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/world/story/shot-at-her-body-too-israel-releases-chilling-video-of-hamas-confession-2452934-2023-10-24</t>
-  </si>
-  <si>
-    <t>BJP's Gaurav Bhatia trolled for trolling Danish Kaneria who trolled Arfa Khanum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJP national spokesperson Gaurav Bhatia was trolled after he slammed former Pakistan cricketer Danish Kaneria on Monday. Gaurav Bhatia took on Danish Kaneria after the cricketer slammed Indian journalist Arfa Khanum Sherwani for her criticism of the behavior of crowds during the ongoing 2023 World Cup.    "Mr Danish Kaneria it would be nice if you could put your house in order first. Arfa criticized our country, wrongly so, but our relationship is not defined by the religion we profess but by the country we love, our Bharat..." Gaurav Bhatia tweeted.Bhatia further warned Kaneria of being thrown out of the "arena like the cricket ball", if he dared to "trouble a fellow Indian".The controversy began after Arfa Khanum Sherwani took to X on Sunday morning and said she was "embarrassed and ashamed as an Indian".   "Deplorable behaviour of many cricket fans during World Cup matches, makes me feel embarrassed &amp; ashamed as an Indian. This petty, insecure &amp; majoritarian approach towards sports which was meant to bring people together, is symbolic of India Modi-RSS have created in last one decade," the journalist wrote.  
-Indian journalist Arfa Khanum Sherwani comments on behaviour of cricket fans during the ongoing 2023 World CupAn hour later, Danish Kaneria responded on X and asked Arfa Khanum Sherwani to "come to Pakistan". "Come to my country Pakistan if you are feeling ashamed to be an Indian. India doesn't need people like you. I am sure many people in India will be happy to sponsor this trip," the former Pakistan cricketer said. Taking a strong note of Kaneria's post over Sherwani, Gaurav Bhatia took to X and wrote, "Mr Danish Kaneria it would be nice if you could put your house in order first. Arfa criticized our country, wrongly so, but our relationship is not defined by the religion we profess but by the country we love, our Bharat. Even when there is very little in common with her, I decide to stand with a fellow Indian over the common faith we both have. This will surely go a long way to show to every citizen that the bond of love for our country should always be stronger than the bond of religion. Never ever dare to trouble a fellow Indian otherwise you will also be thrown out of the arena like the cricket ball. Jai Hind." 
-Gaurav Bhatia slams Danish Kaneria on XPeople started trolling Gaurav Bhatia over his tweet against Danish Kaneria.In less than 10 minutes of his first tweet, Gaurav Bhatia hit out at Sherwani in another post and wrote in Hindi, "There's a saying "Dhobi ka kutta na ghar ka ghat ka"."People like her are so full of venom that they have started getting invites from Pakistan, even the Pakis pronounce that these venomous people don't love Bharat. Deliberate, introspect and ponder who gave them a chance to question your loyalty?," Gaurav Bhatia wrote on X. Nearly 30 minutes later, Kaneria wrote on X, "Mr Gaurav Bhatia, let people decide who will be thrown out of arena. You will not decide my fate. By the way, keep reading replies to this tweet. People are welcoming your support to Arfa Khanum. ??" 
-Former Pakistan cricketer Danish Kaneria slams Gaurav BhatiaPeople in large numbers showed support for Danish Kaneria in their comments.SHERWANI, KANERIA SPAR OVER WORLD CUPResponding to Kaneria's "come to Pakistan" remark, Arfa Khanum Sherwani alleged the former Pakistan cricketer had "unleashed an online lynch mob" on her. "Danish Kaneria has unleashed an online lynch mob on me and I am trending on Twitter. Sad to see an intl cricketer celebrated by fans from different religions turning into a communal troll. Rest assured, I'm not leaving my country for Pakistan or any other place in the world," Sherwani reposted to Kaneria's earlier comment. The row continued as Danish Kaneria responded by saying, "'Lynch' 'mob' 'communal' 'religious' 'troll' 'unleashed'! Don't use these propaganda words for me. Did I talk about communalism in my tweet? No! If you don’t like Pakistan, simply say - 'Danish, I don't like Pakistan'. That's it!"Sherwani maintained "every word of your tweet was communal"."Asking an Indian Muslim to 'go to Pakistan' is as communal and majoritarian as asking a Pakistani Hindu to convert to Islam. It is telling the minority people that you don't belong here or not until you convert to majority religion Got it?," the journalist wrote. "I am not talking about conversion, majoritarianism, Hindus, Indian Muslims or religion," Kaneria wrote."I am simply talking about your 'loyalty'. Got it? Let's end the debate with a single answer — "Just show me a single tweet in which you praised Bharat and its culture." the former Pakistan cricketer wrote in response. Edited By: Vani MehrotraPublished On: Oct 24, 2023ALSO READ  |  Why BJP has focused on its weakest seats in the first listALSO READ  |  Denied poll tickets, BJP workers stage protest against party in RajasthanMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/bjp-gaurav-bhatia-pakistan-cricketer-danish-kaneria-arfa-khanum-sherwani-world-cup-2023-tweet-2452955-2023-10-24</t>
-  </si>
-  <si>
-    <t>'Enough. Israel shouldn't get unrestricted authorisation to kill’: Qatar’s emir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar's ruling emir has said that Israel should not be given "a green light for unconditional killing". This was Sheikh Tamim bin Hamad Al-Thani's first public statement since Qatar started making efforts to bring about a ceasefire and mediate between Israel and Hamas."We say enough...," the emir said during his annual speech to open the Gulf Arab state's advisory Shura council, Reuters reported.He further said that Qatar calls for a "serious regional and international stance" against the dangerous escalation of the war, which "threatens the security of the region and the world".Follow live updates of Israel-Hamas war here"We do not accept double standards and acting like the lives of Palestinian children aren't accounted for, as if they don't have faces or names," Reuters quoted him as saying.This comes close on the heels of Israel's fresh warning to Hamas about "unrelenting attacks". The Israeli Defence Forces (IDF) said that it will bring the Hamas terrorist group to a "state of full dismantling - its leaders, its military branch, and its working mechanisms"."That is why we are striking, and eliminating high ranking commanders and members, destroying infrastructure, and acting with great determination," IDF Chief of the General Staff said in a new video posted on X (formerly Twitter).While world leaders have come out in support of Israel since the country came under Hamas attack on October 7, they have now asked Israeli forces to delay their ground offensive lest civilian casualties keep mounting. The leaders of the US, Canada, France, Germany, Italy and the United Kingdom on Sunday reiterated their support for Israel, but urged the country to adhere to international humanitarian law and protect civilians. US President Joe Biden also told Israeli Prime Minister Benjamin Netanyahu that henceforth, there will be a "continued flow" of humanitarian aid to the Gaza Strip.Israel has been striking Gaza with relentless rocket strikes in retaliation for Hamas's October 7 attack, in which the terrorist group killed 1,400 Israelis and took more than 200 hostages. More than 6,000 people, with over 4,500 in Palestine alone, have been killed in the war so far.Hamas, meanwhile, has released four hostages - two Americans were the first to be released, and on Monday, the terrorist group released two Israeli hostages. They have cited 'humanitarian grounds' to be the reason behind the release.Edited By: Shreyasi JhaPublished On: Oct 24, 2023ALSO READ |  For Israeli forces, the enemy lurks underground in GazaMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/world/story/israel-hamas-war-qatar-emir-remark-israel-shouldnt-be-given-a-green-light-for-unconditional-killing-2452981-2023-10-24</t>
-  </si>
-  <si>
-    <t>'Will not tolerate...': UK PM Rishi Sunak on 'jihad' slogans at London rally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The United Kingdom's Prime Minister Rishi Sunak on Monday warned against "calls for Jihad" on the streets of Britain, and said, "we would never tolerate antisemitism in our country". His comments come against the ongoing Israel-Palestine conflict that was sparked by a terrorist attack that killed over 1,000 people."Calls for Jihad are not only a threat to the Jewish community, but to our democratic values," Rishi Sunak said.Around 100,000 people attended a pro-Palestine rally in central London on Saturday during which people were heard chanting "jihad". "This weekend we saw hate on our streets. Calls for Jihad are not only a threat to the Jewish community, but to our democratic values. We will never tolerate antisemitism in our country. And we expect the police to take all necessary action to tackle extremism head on," Rishi Sunak wrote on X. 
-Rishi Sunak added that protesters who repeat the “hateful extremism” would “feel the full force of the law”.Meanwhile, Metropolitan Police chief Sir Mark Rowley was criticised for the department' officers not arresting those who chanted the "jihad" slogans at the pro-Palestinian protest.Edited By: Shweta KumariPublished On: Oct 24, 2023ALSO READ |  British PM Rishi Sunak's personal mobile number leaked online: ReportMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/world/story/rishi-sunak-warns-against-hate-speech-will-never-tolerate-antisemitism-2452950-2023-10-24</t>
-  </si>
-  <si>
-    <t>'Peaky Blinder' composer reacts after fans flag ‘Leo’ song, claim it’s copied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thalapathy Vijay and director Lokesh Kanagaraj's 'Leo' is having a dream run at the box office worldwide. It was recently reported that the film raked in Rs 400 crore worldwide in just four days. After the release, composer Anirudh Ravichander's background music and songs were much appreciated. On October 23, Anirudh and the makers of 'Leo' dropped the 'Ordinary Person' song on YouTube. The song is heavily inspired from 'Peaky Blinder'. Many reached out to artist Otnicka and pointed out that his song 'I'm not outsider' had been copied. Now, Otnicka took to Instagram to react to the controversy.'PEAKY BLINDERS' COMPOSER REACTS TO CONTROVERSYAnirudh Ravichander scored back-to-back successes with 'Jailer', 'Jawan' and 'Leo'. He was appreciated for his exceptional work for his music and songs. On October 23, Anirudh dropped the 'Ordinary Person' track on YouTube after fans demanded it. However, soon after it released, a section of people pointed out that it had been copied from 'Peaky Blinders'' 'I'm not outsider' track by Otnicka and Duke Luke. Following a barrage of messages, Otnicka took to Instagram to share his thoughts. He said that the situation is unclear as of now. His post read, "Guys, thanks for hundreds of your messages about the movie "Leo". I can see everything, but it's physically impossible to answer everyone. The mail is overflowing with messages, Instagram, as well as thousands of comments on YouTube under the video "Where Are You". The situation is very unclearâ€æ We are looking into this and a little later I will give an assessment of everything that is happening (sic)."  
-Here's the Ordinary Person song: Here's the Peaky Blinders track:  In his replies to fans, Otnicka pointed out that he was unaware of his song being used in 'Leo'. He also wrote, "The label does not own the copyright and cannot grant a license without the artist's knowledge. No one contacted me and the team (sic)." Here are his replies:  
-Anirudh Ravichander is a self-proclaimed fan of 'Peaky Blinders'. His fans defended him saying that the 'Ordinary Person' track was inspired from 'Peaky Blinders' and not copied. Here are some comments:  
-ALL ABOUT 'LEO''Leo' marks the second collaboration of Thalapathy Vijay and director Lokesh Kanagaraj after 'Master'. This film has screenplay written by Lokesh, Rathna Kumar and Deeraj Vaidy. The action entertainer boasts an ensemble cast including Vijay, Trisha, Sanjay Dutt, Arjun Sarja, Mysskin, Sandy and Gautham Menon in pivotal roles. Mathew Thomas, Mansoor Ali Khan, Priya Anand and several others were seen in supporting roles.advertisementHere's the trailer: Produced by Seven Screen Studio, 'Leo' had music composed by Anirudh Ravichander. Cinematographer Manoj Paramahamsa and editor Philomin Raj are part of the crew. Edited By: K JananiPublished On: Oct 24, 2023ALSO READ |  'Leo' box office collection Day 5: Vijay's film surpasses Rs 200 crore in IndiaMust Watch 
-Here's the Ordinary Person song:  Here's the Peaky Blinders track:  In his replies to fans, Otnicka pointed out that he was unaware of his song being used in 'Leo'. He also wrote, "The label does not own the copyright and cannot grant a license without the artist's knowledge. No one contacted me and the team (sic)." Here are his replies:  
-Anirudh Ravichander is a self-proclaimed fan of 'Peaky Blinders'. His fans defended him saying that the 'Ordinary Person' track was inspired from 'Peaky Blinders' and not copied. Here are some comments:  
-ALL ABOUT 'LEO''Leo' marks the second collaboration of Thalapathy Vijay and director Lokesh Kanagaraj after 'Master'. This film has screenplay written by Lokesh, Rathna Kumar and Deeraj Vaidy. The action entertainer boasts an ensemble cast including Vijay, Trisha, Sanjay Dutt, Arjun Sarja, Mysskin, Sandy and Gautham Menon in pivotal roles. Mathew Thomas, Mansoor Ali Khan, Priya Anand and several others were seen in supporting roles.advertisementHere's the trailer: Produced by Seven Screen Studio, 'Leo' had music composed by Anirudh Ravichander. Cinematographer Manoj Paramahamsa and editor Philomin Raj are part of the crew. Edited By: K JananiPublished On: Oct 24, 2023ALSO READ |  'Leo' box office collection Day 5: Vijay's film surpasses Rs 200 crore in IndiaMust Watch 
- In his replies to fans, Otnicka pointed out that he was unaware of his song being used in 'Leo'. He also wrote, "The label does not own the copyright and cannot grant a license without the artist's knowledge. No one contacted me and the team (sic)." Here are his replies:  
-Anirudh Ravichander is a self-proclaimed fan of 'Peaky Blinders'. His fans defended him saying that the 'Ordinary Person' track was inspired from 'Peaky Blinders' and not copied. Here are some comments:  
-ALL ABOUT 'LEO''Leo' marks the second collaboration of Thalapathy Vijay and director Lokesh Kanagaraj after 'Master'. This film has screenplay written by Lokesh, Rathna Kumar and Deeraj Vaidy. The action entertainer boasts an ensemble cast including Vijay, Trisha, Sanjay Dutt, Arjun Sarja, Mysskin, Sandy and Gautham Menon in pivotal roles. Mathew Thomas, Mansoor Ali Khan, Priya Anand and several others were seen in supporting roles.Here's the trailer: Produced by Seven Screen Studio, 'Leo' had music composed by Anirudh Ravichander. Cinematographer Manoj Paramahamsa and editor Philomin Raj are part of the crew. Edited By: K JananiPublished On: Oct 24, 2023ALSO READ |  'Leo' box office collection Day 5: Vijay's film surpasses Rs 200 crore in IndiaMust Watch 
- Produced by Seven Screen Studio, 'Leo' had music composed by Anirudh Ravichander. Cinematographer Manoj Paramahamsa and editor Philomin Raj are part of the crew. Edited By: K JananiPublished On: Oct 24, 2023ALSO READ |  'Leo' box office collection Day 5: Vijay's film surpasses Rs 200 crore in IndiaMust Watch 
+    <t>https://www.indiatoday.in/law/story/madhya-pradesh-high-court-says-scotch-whiskey-consumers-educated-2463892-2023-11-17</t>
+  </si>
+  <si>
+    <t>Shiv Sena factions clash, raise slogans at Balasaheb Thackeray's memorial in Mumbai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A clash between both factions of the Shiv Sena erupted at Balasaheb Thackeray's memorial at Mumbai's Shivaji Park on Thursday evening. The incident happened as both Sena factions came face to face and shouted slogans. While workers of the Shiv Sena shouted that the party belonged to them, those owing allegiance to Uddhav Thackeray responded with "traitors go back" slogans.Condemning the incident, Maharashtra Chief Minister Eknath Shinde said, "No one should create a ruckus at Balasaheb Thackeray's memorial."Shinde also termed the incident "very unfortunate" and said that it "shouldn't be tolerated". "To prevent any untoward incident and maintain law and order, we visited the memorial site a day before to pay tribute to the late Shiv Sena chief Balasaheb Thackeray.""However, the attempt to create a ruckus on his memorial day is reprehensible and highly objectionable," he added. Shinde further said that maintaining law and order in the state is a collective responsibility. He highlighted that as the Chief Minister, he has the right to pay homage to Balasaheb Thackeray on the day of his memorial, adding, "but still we refrained from doing so because I didn’t want anything untoward to happen."The Chief Minister further said, "Till I visited the memorial none was present. After I left, Uddhav Thackeray's Shiv Sena (UBT) leaders Anil Desai and Anil Parab came with supporters and shouted slogans against me, and an unnecessary attempt was made to disrupt peace." Shinde also claimed that abusive language was used against his party's female workers. He further noted that such conduct does not align with the values taught by Balasaheb Thackeray.The Shiv Sena split in June last year following a rebellion by Shinde and both factions have since been trying to claim the legacy of Bal Thackeray, reverentially called 'Hinduhriday Samrat' by supporters.Published By: Ashmita SahaPublished On: Nov 17, 2023READ  |  Those high on power...: Uddhav Thackeray slams Eknath Shinde after shakha razedREAD |  Maharashtra government in favour of Maratha quota, says Eknath ShindeMust Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/balasaheb-thackeray-memorial-ruckus-eknath-shinde-blames-uddhav-thackeray-sena-factions-2463893-2023-11-17</t>
+  </si>
+  <si>
+    <t>Shah Rukh Khan hosts David Beckham in Mannat, video goes viral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legendary footballer David Beckham was in Mumbai for the ICC World Cup semi-final match between India and New Zealand. During his three-day visit here as part of his tour as UNICEF’s Goodwill Ambassador, he attended several high-profile parties and met many celebrities. Last night, Beckham was also clicked outside Shah Rukh Khan's house, Mannat, in Bandra. After visiting SRK, he left Mumbai in the early hours of Friday.advertisementDAVID BECKHAM MEETS SRK IN MANNATAfter Sonam Kapoor and Anand Ahuja organised a grand party for David Beckham at their home in Mumbai, the iconic footballer met Shah Rukh Khan at his residence in Mannat, Bandra.Before leaving India in the wee hours of Friday, November 17, he attended a private bash at SRK’s residence. Beckham was seen arriving quietly in his car in Mannat, hours before his flight. He sported a casual look.Check it out: 
+BECKHAM LEAVES MUMBAI IN PRIVATE JETAfter Sonam Kapoor and Anand Ahuja organised a grand party for David Beckham at their home in Mumbai, the iconic footballer met Shah Rukh Khan at his residence in Mannat, Bandra.Before leaving India in the wee hours of Friday, November 17, he attended a private bash at SRK’s residence. Beckham was seen arriving quietly in his car in Mannat, hours before his flight. He sported a casual look.Check it out: 
+BECKHAM LEAVES MUMBAI IN PRIVATE JETFew hours later, David Beckham was clicked at the Mumbai airport. He left for his country in a private jet. He even waved to the paps before entering the airport.Check it out: 
+Besides this, David Beckham also joined Sara Ali Khan for a conversation at the Meta office in Mumbai. Sonam Kapoor and Anand Ahuja also hosted a star-studded grand welcome party for former English footballer. Besides this, Beckham also visited the Antilla on Thursday to visit Mumbai Indians owners, the Ambani family.David Beckham was last seen in the Netflix docuseries 'Beckham' that explored his life and career as a soccer player. 
+Published By: Grace Cyril Published On: Nov 17, 2023ALSO READ |  Mukesh and Nita Ambani host David Beckham at their Mumbai residenceTrending Reel 
 </t>
   </si>
   <si>
     <t>movies</t>
   </si>
   <si>
-    <t>https://www.indiatoday.in/movies/regional-cinema/story/anirudh-ravichander-releases-leo-track-fans-say-its-copied-from-peaky-blinders-2452924-2023-10-24</t>
-  </si>
-  <si>
-    <t>Who is VK Pandian? A profile on the powerful Odisha former bureaucrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VK Pandian served as the private secretary to Odisha Chief Minister Naveen Patnaik until Monday. On Tuesday, a day after he took voluntary retirement from government service, Pandian was appointed the Chairman 5T (Transformational Initiatives) with the rank of Cabinet Minister.Soon after his voluntary retirement, sources in the ruling Biju Janata Dal (BJD) said Pandian may join the party and may be given a significant role ahead of the assembly elections, which will be due early next year.advertisementWHO IS VK PANDIAN?Pandian rose to prominence as the close aide of the Chief Minister and was a 2000-batch IAS officer of the Odisha cadre. A native of Tamil Nadu, Pandian began his bureaucratic career in 2002, as the sub-collector of Dharmagarh in Kalahandi district, wherein he was involved in farmers' rights and streamlined paddy procurement. Pandian rose to prominence as the close aide of the Chief Minister and was a 2000-batch IAS officer of the Odisha cadre. A native of Tamil Nadu, Pandian began his bureaucratic career in 2002, as the sub-collector of Dharmagarh in Kalahandi district, wherein he was involved in farmers' rights and streamlined paddy procurement. He later bagged the National award from the President of India, for the rehabilitation of Public Works Departments (PWDs). It was then that the single window system for the empowerment of PWDs was taken up as a national model and was implemented throughout the country.On several occasions, Pandian was called to the Lal Bahadur Shastri National Academy of Administration (LBSNAA) to address combined courses of defense forces and administrators. Later, in 2005, he was appointed the collector of the Mayurbhanj district, where his work was taken as an example of how the administration can work towards reducing the spread of Naxalism. In 2007, Pandian was appointed the collector of Ganjam. Over the years, Pandian received the 'Hellen Keller Award' for working for the cause of PWDs.As a collector in Ganjam, he received the National Award for Working for Persons with AIDS, from the Ministry of Health and Family Welfare.He has also received the National Award for NREGS twice for the best district in the country - Ganjam, given by the prime minister.It was under Pandian's leadership that the bank payment of wages in NREGS was first taken up in the Ganjam district, which was later taken up by the government of India for implementation in the entire country.Reports say during his posting in Ganjam, Pandian became close to Chief Minister Patnaik and has served as his private secretary since 2011.After Patnaik became the chief minister for the fifth time in 2019, Pandian was given the additional responsibility of the '5T secretary' to implement some transformational initiatives in government departments.He had often landed in controversies, with the opposition parties alleging that he was misusing his position for political gains.Recently, Pandian was in the headlines for taking a tour of several districts using the state chopper.The opposition Bharatiya Janata Party and Congress had also targeted Pandian for violating service condition rules.During the past decade, Pandian played a key role in implementing several of Naveen Patnaik's missions - Mo Sarkar - an initiative to establish the dignity of the common citizen in government offices
-5T - a charter of governance which emphasised transparency, technology, teamwork, time-leading and transformation
-Pandian, on the instructions of Patnaik, reviewed the progress of the Srimandir Parikrama project, which aimed at improving the experience of pilgrims
-Pandian took up the renovation and restoration of ancient and revered temples throughout the state
-He helped the Chief Minister with the high school transformation project, benefiting lakhs of students in the state
-The hospital transformation across the state and the setting up of many new medical colleges
-BSKY - an initiative that provided health assurance for ordinary people with a special focus on women
-He helped with peoples' grievance redressal in a time-bound manner
-The people of the state remember Pandian's tours during Covid time to check the preparedness of hospitals and health professionals
-Edited By: Vani MehrotraPublished On: Oct 24, 2023Must Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/vk-pandian-odisha-cabinet-minister-naveen-patnaik-private-secretary-pandian-former-ias-officer-2452930-2023-10-24</t>
-  </si>
-  <si>
-    <t>Canada 'downright liar': China on 'Spamouflage' campaign against MPs, Trudeau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Canadian government said on Monday it detected a China-linked "Spamouflage" campaign that involved bots posting disinformation and propaganda on the social media accounts of members of parliament, including Prime Minister Justin Trudeau.The Spamouflage campaign, using networks of new and hijacked social media accounts to post bulk messages, took place in August and September, and targeted dozens of lawmakers from across the political spectrum, the Canadian Foreign Ministry said in a statement.The messages included accusations against the lawmakers of criminal and ethical violations, a claim that Hawaiian wildfires were caused by a secret US military "weather weapon" and deepfake videos.Thousands of such comments in English and French were posted on the lawmakers' Facebook and X (formerly Twitter) accounts, and the government worked with the platforms to get the bot networks removed."This campaign could discourage and make it difficult for MPs to carry out their duties and may dissuade MPs and diaspora communities in Canada from speaking out on issues which concern them," said a foreign ministry report about the incident.In a statement, the Chinese embassy in Canada said Beijing has never interfered in the internal affairs of other countries. It said the accusations were a "blatant smear campaign" and that Canada was a "downright liar and disseminator of false information"."For some time now, the Canadian side has been falsely accusing China of spreading false information against Canadian politicians, a move that is in itself a dissemination of false information, in the absence of any direct and substantive evidence," the embassy statement said, adding that Canada should do more to improve and develop bilateral relations.China-Canada relations turned icy in late 2018 when Canadian police detained a Chinese telecommunications executive. Shortly after, Beijing arrested two Canadians on spying charges. All three have since been released.Ottawa has also accused Beijing of trying to interfere in its affairs through various schemes, including illegal police stations and the targeting of lawmakers. China has strongly denied all such allegations.In September, the Trudeau government announced an independent public enquiry into allegations of attempted foreign meddling by China, Russia and others.Edited By: sharangee Published On: Oct 24, 2023ALSO READ |  Before Khalistanis, Nazis found safe haven in CanadaTrending Reel 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/world/story/canada-claims-china-linked-spamouflage-campaign-targeted-lawmakers-prime-minister-justin-trudeau-2452965-2023-10-24</t>
-  </si>
-  <si>
-    <t>'Eating 8 kg mutton every day': Wasim Akram furious over Pakistan players' fitness after defeat to Afghanistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Former Pakistan captain Wasim Akram lashed out at Babar Azam's team after the former champions lost to lower-ranked Afghanistan in a sensational World Cup 2023 result in Chennai on Monday, saying the fitness lavels of the players left a lot to be desired. Pakistan suffered their third successive defeat in the tournament as their semi-final hopes took a huge blow.It was also Pakistan's first defeat to Afghanistan in ODI cricket in the 8th meeting between the two sides. Fifties from Babar Azam, Abdullah Shafique and handy knocks from Iftikhar Ahmed and Shadab Khan propelled Pakistan to 282 in 50 overs on a tricky pitch in Chennai and it looked like Pakistan had enough on the board. PAK vs AFG, World Cup: Report | HighlightsHowever, much to the surprise of quite a few, Afghanistan chased down the target with an over to spare and 8 wickets in hand. Openers Rahmanullah Gurbaz and Ibrahim Zadran tore into the Pakistan bowling attack that looked low on energy on the big day in Chennai. The two batters added 130 for the opening stand and knocked the wind out of Pakistan's sails. World Cup 2023 Full CoverageThe shoulders began to drop in the Pakistan camp and captain Babar Azam cut a frustrated figure as Pakistan were shoddy on the field. The out-fielding was a shocker as Pakistan players conceded extra runs to already inspired Afghanistan batters. Shaheen Afridi came up with blunders along the boundary rope. So did Hasan Ali. There were overthrows and fielders not being able to back up made Pakistan's efforts unworthy of an ICC tournament. Ibrahim Zadran was dismissed for 87 but Rahmat Sah (77) and Hashmatulah Shahidi (48) steered Afghanistan past the finish line for a historic win."It's embarrassing. Just 2 wickets, 280-290 is a big score. The pitch is wet or not wet. Fielding was... you look at the fitness levels. We have been discussing on this show that there has been no fitness test for the last 2 years. If I take the players' individual names, they won't like it. It looks like they are eating 8 kg of mutton every day," Akram told A Sports after Pakistan's 8-wicket defeat. Akram also said that the Pakistan players did not like the fitness tests that were place when they were handled by former head coach Misbah-ul-Haq but those tests helped the team do the basics right. "There should be tests. Professionally, you are playing for your country, you are being paid. I am with Misbah. When he was coach, he had that criteria, players hated him. But, it worked for the team. Fielding is all about fitness, and it shows on the field. "Now we have come to a stage, where we will pray, do ifs and buts, wait for other teams to lose, then we can reach the semi-finals," he added. Afghanistan players celebrated the landmark victory with a lap of hounour at the MA Chidambaram Stadium as fans had turned out in numbers, supporting the two sides. Pakistan will next face South Africa on Friday in Chennai while Afghanistan travel to Pune to face Sri Lanka on Monday. 
-Edited By: Akshay RameshPublished On: Oct 24, 2023Also Read |  World Cup 2023: Babar Azam not under ‘pressure’ of captaincy after Pakistan lose to Afghanistan 
+    <t>https://www.indiatoday.in/movies/celebrities/story/shah-rukh-khan-hosts-david-beckham-in-mannat-video-goes-viral-2463911-2023-11-17</t>
+  </si>
+  <si>
+    <t>Rajasthan polls: How Alwar's Meo Muslims, cow vigilantes see the bipolar contest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajasthan goes to poll on November 25. The Congress government is hoping to beat anti-incumbency and retain power in the desert state, while the BJP is hoping to make a comeback. The voters of Alwar district are not unaffected by the poll fever. Here, the poll issues are more divisive, more along the Hindu versus Muslim political binary. In this Rajasthan district, clashes have often erupted over allegations of cow smuggling and incidents of cow vigilantism. The Gau Rakshaks (cow vigilantes) allege that the Muslim community members manhandle the cows and eventually smuggle them. The Meo Muslims, for their part, have reiterated that they have nothing to do with cow smuggling and slaughter.India Today TV spoke to cow vigilantes, to members of the Meo Muslim community, and the locals to gauge the people’s mood ahead of polling.‘BJP always maligned us’: Meo MuslimsMeo Muslims, dealing in livestock and dependent on their produce, live in fear of being ignored or targeted. Members of the community hope that growth and development will find a way to this remote village in Alwar.Mohammed Rafique, a member of the Meo Muslim community, said, "For us, the biggest issue is growth and job employment."The village, with a population of around 200 people, appears shrouded in darkness, with no roads or school seen anywhere."Our situation hasn't changed in the last five years...We vote thinking that growth and development will be brought here, but nothing has been done ever. The BJP has always maligned us. Congress is okay but BJP spreads casteism,” another man said.  
+"The brotherhood is no longer there. 15-20 years back, the situation was okay, but since the BJP came to power, the situation has deteriorated here,” a man from the Meo Muslim community said."We just want road and water in our village," the locals said as they laid down their expectations of the upcoming government.‘We see hope in BJP’: Cow vigilantesThe self-styled cow vigilantes in Alwar have strong opinions on what they would keep in mind for the upcoming polls.Speaking to India Today TV, a cow vigilante said, "I have been gau rakshak for eight years. We are Sanatanis. In our religion, cows are highly respected. We revere cows as mata (mother) and we can't let cows be insulted. In the last eight years, I have seen a lot. We've been called ‘thieves’ and ‘dacoits’ and have been accused of misusing funds. But they should come and see how much funds we have received and how much work we get done...The cow smugglers attack us openly in front of the police. They mistreat cows. Sometimes when we stop a car, we find dead cows inside.”"Yes, we are goons. This is not a job for simple people. The administration and ministers call us goondas (dacoits), but nobody comes forward to help,” he added. 
+advertisementAnother person said that nationalism is the biggest issue he considers for polls. According to him, true nationalism is about the "strengthening of Sanatana Dharma, protection of temples, and safety of soldiers".On Meo Muslims' claim that the situation has worsened in Alwar, the cow vigilantes said, "We don't think the situation has worsened here...There is nothing from our side and we have maintained brotherhood from our end.”However, another cow vigilante said, "We don't want such brotherhood. They do politics based on religion. We see some hope from the BJP.”For locals, it is BJP vs CongressSome locals of Sahubas village expressed discontent with the ruling Congress government. "No good work has been done in the past 5 years. Rajasthan's situation is five years its BJP and then 5 years Congress. This time it is BJP's number,” a local said.Another man, however, praised the Congress government and said they have done a good job in the state.Meanwhile, a local lashed out at the divisive politics of the BJP candidate Baba Balak Nath."Here, Congress is the only one with ‘sabka saath, sabla haath’. Casteism is rampant here...Muslims are being called Pakistanis (by Baba Balak Nath),” he said.advertisementImran Khan, Congress’s candidate for the Tijara seat for the upcoming Rajasthan Assembly election, said that the people did not want a leader like Baba Balak Nath."In the last 4 years, he hasn't done anything for the people. He never met anyone or done anything for growth. He has maintained his VIP culture.  Tijara doesn't want a leader like him. They want someone who is like them, who thinks like them, and who will work hard for them.”He, however, said that the poll was not about Hindus vs Muslims. "Those who do not have vision do communal politics," Imran Khan said.Published By: Anuja JhaPublished On: Nov 16, 2023ALSO READ |  'Lahore keeping an eye...': BJP leader's remark on Rajasthan polls stirs rowALSO READ |  'Congress sweep in Rajasthan': Rahul Gandhi's unity talk, state's top 2 presentMust Watch 
+"The brotherhood is no longer there. 15-20 years back, the situation was okay, but since the BJP came to power, the situation has deteriorated here,” a man from the Meo Muslim community said."We just want road and water in our village," the locals said as they laid down their expectations of the upcoming government.‘We see hope in BJP’: Cow vigilantesThe self-styled cow vigilantes in Alwar have strong opinions on what they would keep in mind for the upcoming polls.Speaking to India Today TV, a cow vigilante said, "I have been gau rakshak for eight years. We are Sanatanis. In our religion, cows are highly respected. We revere cows as mata (mother) and we can't let cows be insulted. In the last eight years, I have seen a lot. We've been called ‘thieves’ and ‘dacoits’ and have been accused of misusing funds. But they should come and see how much funds we have received and how much work we get done...The cow smugglers attack us openly in front of the police. They mistreat cows. Sometimes when we stop a car, we find dead cows inside.”"Yes, we are goons. This is not a job for simple people. The administration and ministers call us goondas (dacoits), but nobody comes forward to help,” he added. 
+Another person said that nationalism is the biggest issue he considers for polls. According to him, true nationalism is about the "strengthening of Sanatana Dharma, protection of temples, and safety of soldiers".On Meo Muslims' claim that the situation has worsened in Alwar, the cow vigilantes said, "We don't think the situation has worsened here...There is nothing from our side and we have maintained brotherhood from our end.”However, another cow vigilante said, "We don't want such brotherhood. They do politics based on religion. We see some hope from the BJP.”For locals, it is BJP vs CongressSome locals of Sahubas village expressed discontent with the ruling Congress government. "No good work has been done in the past 5 years. Rajasthan's situation is five years its BJP and then 5 years Congress. This time it is BJP's number,” a local said.Another man, however, praised the Congress government and said they have done a good job in the state.Meanwhile, a local lashed out at the divisive politics of the BJP candidate Baba Balak Nath."Here, Congress is the only one with ‘sabka saath, sabla haath’. Casteism is rampant here...Muslims are being called Pakistanis (by Baba Balak Nath),” he said.Imran Khan, Congress’s candidate for the Tijara seat for the upcoming Rajasthan Assembly election, said that the people did not want a leader like Baba Balak Nath."In the last 4 years, he hasn't done anything for the people. He never met anyone or done anything for growth. He has maintained his VIP culture.  Tijara doesn't want a leader like him. They want someone who is like them, who thinks like them, and who will work hard for them.”He, however, said that the poll was not about Hindus vs Muslims. "Those who do not have vision do communal politics," Imran Khan said.Published By: Anuja JhaPublished On: Nov 16, 2023ALSO READ |  'Lahore keeping an eye...': BJP leader's remark on Rajasthan polls stirs rowALSO READ |  'Congress sweep in Rajasthan': Rahul Gandhi's unity talk, state's top 2 presentMust Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/elections/rajasthan-assembly-polls-2023/story/rajasthan-polls-alwar-meo-muslims-cow-vigilantes-bipolar-contest-2463834-2023-11-16</t>
+  </si>
+  <si>
+    <t>Video: Amazon delivery agent watches as people loot her truck in Atlanta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A group of people looted an Amazon delivery van in the US's Atlanta as the woman driver looked on helplessly from a distance. According to the New York Post, the incident was the latest in a string of attacks on delivery trucks. 
+The driver told police that she left the vehicle unattended while she delivered a package to an apartment in the Fairburn Mays neighborhood on Sunday. She added that at least four men ran up to the truck and stole multiple packages from inside the vehicle.A video captured by an onlooker from a nearby apartment shows multiple men jumping inside the van and fleeing with boxes in their hands. The camera then turned to the driver, who abruptly stopped walking when she saw what was happening and watched as her truck was ransacked.As they rushed to get into the van, a couple of the thieves also slipped and fell to the ground before quickly getting up and inside the vehicle.It is not known what items were in the stolen packages.Other attacks on delivery vans were reported in Memphis where motorists blocked a FedEx semi-truck to steal packages. A group of armed thieves also took control of a UPS vehicle in Mayland recently. Published By: chingkheinganbi mayengbamPublished On: Nov 16, 2023
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/world/story/amazon-delivery-agent-watches-as-people-loot-her-truck-in-atlanta-video-2463810-2023-11-16</t>
+  </si>
+  <si>
+    <t>SA v AUS, World Cup 2023: Australia set up final against India after breaking South African hearts in Kolkata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia defeated South Africa in the second semifinal of the 2023 World Cup at the Eden Gardens on Thursday to set up a title clash against India. The final will be played at the Narendra Modi Stadium in Ahmedabad on November 19. Australia prevailed in a thriller as they chased down 213 runs with 3 wickets and 2.4 overs to spare, fending off a spirited threat from the Proteas. SA vs AUS, 2nd semi-final: Scorecard | HighlightsThis will be the 8th ODI World Cup for Australia, who have won the tournament five times. They first lifted the World Cup in 1987 before starting a period of unmatched domination when they won the Cup three successive times from 1999 to 2007. In 2015, Australia won the World Cup in 2015.This was the third ODI World Cup semifinal between Australia and South Africa. The first such match between the two sides was played out in 1999 when Australia came from behind to secure a sensational tie. In 2007, Australia roared to a dominant win while the latest semifinal in 2023, showed promises of a thriller before the Australians reached home, leaving South Africa gutted. South Africa have now lost all their five World Cup semifinals. They failed to qualify for the final after reaching the last-four in 1992, 1999, 2007, 2015 and 2019.Australia's victory has set up a classic final against India. The two teams had faced off in the final of the 2003 World Cup but a Ricky Ponting masterclass had scripted a one-sided Australian victory in Johannesburg. 20 years later, India go into the final as the favourites. India have won all their 10 matches in the tournament. India and Australia share a storied rivalry in world cricket. This will be the third major final between the two teams and the second this year alone after the World Test Championship final at The Oval. HEAD, WARNER DICTATE TERMSDavid Warner and Travis Head raced away to a strong start to their chase. South Africa's pacers looked flat as Warner hit four sixes in an 18-ball 29. The breakthrough was provided by the part-time spin of Aiden Markram when he snared Warner in the 7th over. Australia, at that stage, were 60 for 1 and looked like runaway winners. But Kagiso Rabada, who was expensive, struck to get rid of Mitchell Marsh for a duck in the next over.For some reason, Bavuma delayed the introduction of Keshav Maharaj, who was in red-hot form against India at the same venue a few days ago. When finally Maharaj and Tabraiz Shamsi started bowling in tandem, Australia could feel a little pressure. The two South Africa spinners were relentless as Steve Smith and Marnus Labuschagne looked to just survive.
+View this post on Instagram
+A post shared by ICC (@icc)
+A post shared by ICC (@icc)
+The good thing for Australia was that they did not need to chase a high run-rate. The bad thing for Australia was that both Maharaj and Shamsi were getting a lot of purchase from the Eden Gardens pitch. And worse still was the fact that Labuschagne and Glenn Maxwell chose to play inexplicably poor shots when all they needed to do was see off the two fired-up South African spinners.Fortunately for Australia, they had the calm Steve Smith in the middle. He did not take many chances because he did not need to. After being dropped twice, Smith decided to drop anchor and scored 30 off 62 balls to take Australia close to the target. He was dismissed by Gerald Coetzee with Australia needing 39 runs to win. Smith was miffed with himself after playing a horrible shot but Australia had enough batting cushion to be able to chase a modest total down.The total of 212 was never going to be enough despite a valiant bowling effort, especially from fast bowler Gerald Coetzee in the end as he got the big wicket of Josh Inglis when the game was still tense. However, Mitchell Starc and Pat Cummins combined to get the job done, knowing fully well that they just needed to knock it around. IMPLOSION UNDER GREY SKYSouth Africa chose to bat in the semifinal because Temba Bavuma knew his batters could be burdened by the pressure of a run chase in a big game. However, South Africa collapsed in the face of some superb pace bowling in overcast conditions and at the end, David Miller's sensational hundred would not be enough.Temba Bavuma has had a wretched tournament with the bat. On Thursday, when the team needed him to stand up and do something special, the South Africa captain fell to Mitchell Starc for a duck in the first over.Shockingly, after that dismissal, South Africa failed to even look for any kind of initiative. Rassie van der Dussen joined Quinton de Kock and the two of them were all at sea against Starc and Josh Hazlewood. de Kock is the second highest run-scorer in the World Cup but he signed out with a mere 3 off 14 balls, never looking comfortable in his stay at the crease. His agony came to an end as early as the sixth over of the innings when he played a poor shot in an attempt to release the pressure created by the Australian new-ball bowlers. de Kock tried to hit a length ball into orbit but he lacked any kind of control and Pat Cummins held on to a stunning catch.Aiden Markram, who had hammered a 49-ball hundred in South Africa's first match of the World Cup, was the next man to go. He fell to Starc for a 20-ball 10 in the 11th over. Australia inflicted further pain on the South Africans when Hazlewood struck in the next over of the innings and dismissed the dangerous Rassie van der Dussen.KILLER MILLER SCRIPTS HISTORYSouth Africa needed a miracle to stay afloat in the semifinal and that came in the shape and form of David Miller and Heinrich Klaasen; the pair rebuilt after a short rain break and made full use of the fact that Starc and Hazlewood had bowled out most of their overs in extended spells. Pat Cummins wasn't effective in his first over and he turned to Adam Zampa, who led the wicket-takers' charts until Mohammed Shami left him behind on Wednesday.Adam Zampa was taken apart by Heinrich Klaasen and David Miller. They knew attacking Australia's best bowler would be the first step to some kind of redemption. Not long ago, Klaasen had paired with Miller for one of the most destructive ODI partnerships in a bilateral match. The stakes in Kolkata were much higher and despite a miserly spell from Glenn Maxwell, South Africa kept adding to their tally.
+View this post on Instagram
+A post shared by ICC (@icc)
+A post shared by ICC (@icc)
+Travis Head was the trump card for Pat Cummins when it looked like the Australia captain was running out of ideas. Head's first over was eventful; he conceded two boundaries but he also picked the wickets of Klaasen and Marco Jansen off successive deliveries.That left David Miller with no choice but to shift gears and look for runs. He would go on to score one of the gutsiest hundreds in World Cup history. Eventually, South Africa were bowled out for 212, just one run short of what the two teams scored in that now iconic semifinal in the 1999 World Cup.Published By: Akshay RameshPublished On: Nov 16, 2023Also Read |  KL Rahul: The unsung hero of India's dominant World Cup 2023 campaignMust Watch 
 </t>
   </si>
   <si>
     <t>sports</t>
   </si>
   <si>
-    <t>https://www.indiatoday.in/sports/cricket/story/pakistan-vs-afghanistan-wasim-akram-furious-reaction-fitness-filelding-8-kg-mutton-2452940-2023-10-24</t>
-  </si>
-  <si>
-    <t>Pic: Kangana Ranaut meets NSA Ajit Doval, calls him 'every soldier's inspiration'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kangana Ranaut traveled to Delhi to promote her upcoming film 'Tejas'. She will also be taking part in the Ram Leela festivities in the National Capital and is set to create history as the first woman to ignite the Ravana effigy at the Red Fort grounds, on Tuesday, October 24. On her way to the national capital, Kangana had the pleasure of meeting India's National Security Advisor (NSA), Ajit Doval. She shared some cheerful selfies with him on X (formerly Twitter). Ajit Doval is widely recognized as India's equivalent to James Bond.advertisementKANGANA RANAUT MEETS NSA AJIT DOVAL ON FLIGHTKangana Ranaut is in Delhi to promote her upcoming film 'Tejas'. On her way to the national capital, the actress met NSA Ajit Doval on the flight. In fact, she was seated next to him.  
-Sharing a picture together, she wrote, "What a generous stroke of luck, aaj subah flight mein I got to sit next to none other than the greatest of all time, Shri Ajit Doval ji, while promoting Tejas (a film dedicated to our soldiers) I got to meet sir who is every soldier’s inspiration I consider this a great omen, Jai Hind (sic)."Here's the picture: 
-Kangana Ranaut with NSA Ajit Doval.ABOUT 'TEJAS'Produced by RSVP, Tejas stars Kangana Ranaut in the titular role. Written and Directed by Sarvesh Mewara and Produced By Ronnie Screwvala, the film is scheduled to release in Theatres on October 27th, 2023.Edited By: Anisha RaoPublished On: Oct 24, 2023ALSO READ: |  Kangana Ranaut on her directorial debut 'Emergency': It has nothing to do withâ€æMust Watch 
-Kangana Ranaut is in Delhi to promote her upcoming film 'Tejas'. On her way to the national capital, the actress met NSA Ajit Doval on the flight. In fact, she was seated next to him.  
-Sharing a picture together, she wrote, "What a generous stroke of luck, aaj subah flight mein I got to sit next to none other than the greatest of all time, Shri Ajit Doval ji, while promoting Tejas (a film dedicated to our soldiers) I got to meet sir who is every soldier’s inspiration I consider this a great omen, Jai Hind (sic)."Here's the picture: 
-Kangana Ranaut with NSA Ajit Doval.ABOUT 'TEJAS'Produced by RSVP, Tejas stars Kangana Ranaut in the titular role. Written and Directed by Sarvesh Mewara and Produced By Ronnie Screwvala, the film is scheduled to release in Theatres on October 27th, 2023.Edited By: Anisha RaoPublished On: Oct 24, 2023ALSO READ: |  Kangana Ranaut on her directorial debut 'Emergency': It has nothing to do withâ€æMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/movies/celebrities/story/kangana-ranaut-meets-ajit-doval-delhi-flight-tejas-2452998-2023-10-24</t>
-  </si>
-  <si>
-    <t>Cyclone 'Hamoon' intensifies into very severe cyclonic storm, 7 states on alert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyclone 'Hamoon' has intensified into a very severe cyclonic storm, and currently lies close to Odisha, West Bengal and Bangladesh, the India Meterological Department (IMD) said in its latest update on X (formerly Twitter) on Tuesday. The cyclonic storm currently lies about 290 km of Paradip in Odisha, 270 km of Digha in West Bengal, and 230 km south-southwest of Khepupara in Bangladesh.The Met Department, however, said that 'Hamoon' is likely to weaken before making a landfall on the Bangladesh coast between Khepupara and Chittagong around Wednesday (October 25) evening.Earlier this morning, Cyclone 'Hamoon' intensified into a severe cyclonic storm as per the forecast of the IMD.As many as seven states have been put on rainfall alert, and fishermen have also been asked not to venture into the Bay of Bengal till October 25. The states on alert include Odisha, West Bengal, Manipur, Tripura, Mizoram, Assam and Meghalaya.The IMD has issued a rainfall warning in Manipur, Mizoram, south Assam and Meghalaya for today and tomorrow, and Odisha and West Bengal for today.Furthermore, the Met Department has issued fishermen warning in Bay of Bengal. They have been asked not to venture into the eastcentral, westcentral, north and along and off Odisha, West Bengal Bangladesh and north Myanmar coasts till October 25.Meanwhile, another Cyclone called 'Tej' that originated over the Arabian Sea and turned into an extremely severe cyclonic storm on Sunday. As per the IMD's latest update, 'Tej' has crossed Yemen coast and weakened into a severe cyclonic storm over coastal Yemen. "It is very likely to move further north-westwards and weaken into a cyclonic storm during [the] next 6 hours," the IMD said on X.Edited By: sharangee Published On: Oct 24, 2023ALSO READ |  Low pressure forms over Bay of Bengal, coastal Odisha to see rain during Dusshera
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/cyclone-hamoon-intensifies-into-severe-cyclonic-storm-imd-rainfall-warning-alert-in-seven-states-2452881-2023-10-24</t>
-  </si>
-  <si>
-    <t>'Muslims have endured disproportionate...': White House on antisemitism question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muslims and those perceived to be Muslim have endured a disproportionate number of hate-fueled attacks, Karine Jean-Pierre, White House Press Secretary, said at a press briefing. Upon being asked about US President Joe Biden's level of concern about a potential rise in antisemitism, Pierre said, "We have not seen any credible threats, though there have always been questions about how credible threats are.""Muslims and those perceived to be Muslim have endured a disproportionate number of hate-fueled attacks."Speaking further, the White House Press Secretary said, "President Biden understands that many of our Muslim Arab Americans and Palestinian Americans' loved ones are worried about hate being directed at their communities. One of the things President Biden has done is to direct his Homeland Security team to prioritise the prevention and disruption of any potential threats that could harm the Jewish, the Muslim, the Arab Americans, or any other community.""That is something that the President takes very, very seriously," she reiterated.  
-The United States is on alert for activity by Iran-backed groups amidst escalating tension in the Middle East amid the Israel-Hamas war.On Sunday, Defence Secretary Lloyd Austin said the United States has decided to send a Terminal High Altitude Area Defence system as well as additional Patriot battalions to the Middle East to increase its force posture there following recent escalations by Iran and its proxy forces across the region.These steps will bolster regional deterrence efforts, increase force protection for US forces in the region, and assist in the defence of Israel, he said.The US has also activated the deployment of a Terminal High Altitude Area Defense (THAAD) battery as well as additional Patriot battalions to locations throughout the Eastern Mediterranean Sea to increase force protection for US forces, he added.US forces in the region come under repeated drone attacks in Iraq and Syria since the conflict between Israel and Hamas militants in Gaza broke out on October 7.Edited By: Vani MehrotraPublished On: Oct 24, 2023Must Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/world/story/muslims-endured-hate-fueled-attacks-says-white-house-press-secretary-joe-biden-2452911-2023-10-24</t>
-  </si>
-  <si>
-    <t>‘Dad’s ultimate spin ball... we never saw coming’: Actor Angad Bedi’s tribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Former India captain, Bishan Singh Bedi died on October 23. He was 77. The former legend is survived by wife Anju and children, Angad and Neha Bedi. On October 24, Angad Bedi and his family issued a heartfelt statement on social media and mourned the huge loss. They mentioned that the entire family is in shock, however, they find 'solace in knowing that he lived a rich, fearless and full life that inspired many.'advertisementANGAD BEDI AND FAMILY ISSUE STATEMENTAngad Bedi took to Instagram and shared a heartwarming message on behalf of his family to mourn the demise of his father and cricket legend, Bishan Singh Bedi. "Isn’t it completely in Dad’s character to bowl us over with the ultimate spin ball, one that even we never saw coming. While we are in shock and overcome with grief, we find solace in knowing that he lived a rich, fearless and full life that inspired many. We are moved by each and every message of love we have received, publicly and personally. Thank you to everyone for celebrating his grit, humour and a giant heart. It is heartwarming to see how many generations Dad inspired through his life. Every day of his life was spent in devotion to his family and faith, and in service to his Waheguru. He epitomised living a life that was Nirbhau-Nirvair and we are comforted in knowing that he is with His Beloved now (sic).""Dad, we were blessed to have you as our fearless leader. We will strive to live by your motto - to observe and absorb. Keep guiding us from the great beyond. In love and faith (sic)," it concluded.  
-Several Bollywood stars including Shah Rukh Khan, Salman Khan, Sanjay Dutt, Abhishek Bachchan and others also condoled the death while offering their prayers to the family. ALL ABOUT BISHAN SINGH BEDIBishan Singh Bedi, born in Amritsar, India on September 25, 1946, was a highly skilled left-arm orthodox spinner celebrated for his graceful bowling style. He began his international cricket journey in 1966, representing India until 1979. Bedi was renowned for his mastery of flight and spin, using subtle variations to outwit batsmen. His leadership was pivotal in India's historic 1971 series victory against England when he captained the team in the absence of the injured Ajit Wadekar, solidifying India's reputation as a competitive cricketing nation.Edited By: Prachi aryaPublished On: Oct 24, 2023ALSO READ |  Shah Rukh Khan, Sanjay Dutt and others mourn Bishan Singh Bedi's deathMust Watch 
-Angad Bedi took to Instagram and shared a heartwarming message on behalf of his family to mourn the demise of his father and cricket legend, Bishan Singh Bedi. "Isn’t it completely in Dad’s character to bowl us over with the ultimate spin ball, one that even we never saw coming. While we are in shock and overcome with grief, we find solace in knowing that he lived a rich, fearless and full life that inspired many. We are moved by each and every message of love we have received, publicly and personally. Thank you to everyone for celebrating his grit, humour and a giant heart. It is heartwarming to see how many generations Dad inspired through his life. Every day of his life was spent in devotion to his family and faith, and in service to his Waheguru. He epitomised living a life that was Nirbhau-Nirvair and we are comforted in knowing that he is with His Beloved now (sic).""Dad, we were blessed to have you as our fearless leader. We will strive to live by your motto - to observe and absorb. Keep guiding us from the great beyond. In love and faith (sic)," it concluded.  
-Several Bollywood stars including Shah Rukh Khan, Salman Khan, Sanjay Dutt, Abhishek Bachchan and others also condoled the death while offering their prayers to the family. ALL ABOUT BISHAN SINGH BEDIBishan Singh Bedi, born in Amritsar, India on September 25, 1946, was a highly skilled left-arm orthodox spinner celebrated for his graceful bowling style. He began his international cricket journey in 1966, representing India until 1979. Bedi was renowned for his mastery of flight and spin, using subtle variations to outwit batsmen. His leadership was pivotal in India's historic 1971 series victory against England when he captained the team in the absence of the injured Ajit Wadekar, solidifying India's reputation as a competitive cricketing nation.Edited By: Prachi aryaPublished On: Oct 24, 2023ALSO READ |  Shah Rukh Khan, Sanjay Dutt and others mourn Bishan Singh Bedi's deathMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/movies/celebrities/story/bishan-singh-bedis-death-son-angad-and-family-share-heartfelt-statement-2452945-2023-10-24</t>
-  </si>
-  <si>
-    <t>Video: Afghanistan team grooves to 'Lungi Dance' after winning against Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afghanistan cricket team won a match against Pakistan in the ongoing World Cup series on Monday. The players celebrated their win by grooving to some desi beats. AFGHANISTAN TEAM SWAYS TO 'LUNGI DANCE' IN VIRAL VIDEOA video of the Afghanistan players celebrating and rejoicing over their victory is being widely circulated on the internet. Take a look at the viral video here: 
-The Afghan players were seen dancing, taking photos and videos as the Chennai Express song 'Lungi Dance' played in the background. The Afghanistan Cricket Board (ACB) also shared a video of the celebrations where the cricketers were seen using kitchen utensils as music equipment.  Afghanistan won by eight wickets against Pakistan. This is the first time that Afghanistan has won against Pakistan in this format. A HISTORIC WINAfghanistan captain Hashmatullah Shaidi said in a statement, “This win tastes nice. The way we chased was very professional. Looking forward to the other games. The way we chased today, we’ll do it again. The quality cricket that we have been playing from the last couple of years, the belief was there when we were playing the Asia Cup also. At the start of the tournament, I said that we want to make this tournament historic for our country."Afghanistan will play against Srilanka next on October 30 in Pune. Edited By: Anvita SinghPublished On: Oct 24, 2023ALSO READ |  Dear Bollywood, stop stereotyping South Indians. Know the difference between lungi and dhotiMust Watch 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/movies/bollywood/story/video-afghanistan-team-grooves-to-lungi-dance-after-winning-against-pakistan-2452958-2023-10-24</t>
-  </si>
-  <si>
-    <t>For Israeli forces, the enemy lurks underground in Gaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At a zoo in Gaza, there are hyenas, foxes, monkeys, deer and even lions. All drugged and smuggled in sacks through the underground tunnels into Gaza from Egypt. Gaza has faced a blockade with only aid making its way with Israel's approval. But it is this network of tunnels that has made the Palestinian territory get some sense of normalcy. But, imagine, there are tunnels through which a lion was smuggled in!“It’s just a matter of time until they [Hamas terrorists] make a tunnel an elephant can walk through,” Shadi Fayiz, a zoo manager, told The Associated Press in 2008.Hamas might have done just that and even gone beyond. Below the Gaza Strip, there seems to be another city that evades the eye. A network of 1,300 tunnels, stretching around 500 kilometres. Though they are generally up to 30 metres deep, the tunnels could at times go as deep as 70 meters. Some parts of the tunnels are reinforced by concrete to withstand Israeli bombing and also have electricity.These tunnels are now the biggest threat the Israeli Defense Forces (IDF) faces as it waits for a nod to conduct what could be the most massive ground offensive in Gaza after the October 7 Hamas attacks in which hundreds of people were butchered.Experts believe that some of the over 200 Israeli hostages in Hamas captivity could be in the tunnels.A combination of dense urban terrain and subterranean tunnel networks will make the Israeli military's task in Gaza very tough and dangerous.  The tunnels will give the Hamas terrorists the benefit of ducking Israeli fire and allow them to move undetected, beneath the feet of Israeli soldiers only to emerge from behind and surprise them. This amid intense door-to-door fighting and Hamas sniper fire. It will be a three-dimensional fight, as some experts predict. 
-“If the Israel Defense Forces (IDF) conduct a ground campaign in Gaza, the threat of Hamas tunnels will be one of the most significant challenges to contend with,” writes John Spencer, the chair of urban warfare studies at the Modern War Institute at West Point. “Collectively, they offer Hamas fighters the means to protect themselves against the Israeli offensive, maneuver undetected below the surface, and launch attacks before returning to the security of the tunnels,” according to John Spencer.HAMAS TUNNELS A RISK TO GAZA CIVILIANSAnd these tunnels, referred to as the ‘Gaza Metro’, are a source of civilian catastrophe on both sides of the Gaza border.If they are used by Hamas terrorists to infiltrate into Israel and kill and kidnap civilians, the tunnels also predispose people of Gaza to Israeli attacks. “The tunnels are a major threat to people on both sides of the Gaza border. They open up in schools, mosques and homes. They have been constructed as part of Hamas strategy,” Daphne Richemond-Barak of the Modern War Institute at West Point and author of ‘Underground Warfare’ tells ABC News Live. “Hamas exploits the Palestinian population of Gaza by building tunnels beneath densely populated areas. Many times, the tunnels’ access points are hidden between schools, mosques, hospitals and other civilian buildings,” a web page of the Israeli Defense Forces says, pointing out that Hamas “deliberately embeds its terrorist infrastructure inside civilian neighbourhoods”.HOW HAMAS BUILT THE ‘GAZA METRO’Initially, used to smuggle goods -- anything from Viagra to refrigerators -- and fuel into Gaza, the tunnel network has evolved to become its command and control centre, arms storehouse and even to house its leadership. The tunnels Hamas digs to cross into Israel for infiltration are different from the ones Hamas has constructed below Gaza, says Daphne Richemond-Barak. “The Gaza tunnels house the entire military apparatus of Hamas. So, everything you would expect a military to possess is located in this network of tunnels which have been dug deeper and deeper over time. You find ammunition, rockets, living quarters of the Hamas leadership and command-and-control centres,” she tells MSNBC.She said that Hamas appeared to have honed its tunnel-building expertise by studying Syrian rebels in Aleppo and the Islamic State (IS) fighters in Iraq's Mosul.The tunnels, referred to as 'Gaza Metro' now, were being constructed for decades but the work got a boost after Israel withdrew its troops and settlers from Gaza in 2005. The tunneling work became elaborate after Hamas ousted rival Fatah from Gaza in the 2006 election. 
-The tunnel-construction work got a boost after Israel withdrew its troops and settlers from Gaza in 2005 and Hamas ousted rival Fatah in the 2006 election. (Image: Getty)“Some of the tunnels are reinforced with concrete and they are typically equipped with electricity and ventilation shafts. Some of the tunnel networks also have basic means of transportation for weapons and excavated soil,” she says. Up to 50,000 Palestinians are employed in the construction of these tunnels and in the smuggling business, according to a 2013 Guardian report.It was only during a military operation in 2014 that the Israeli forces discovered the extent of the Hamas tunnels. In 2021, Israeli forces destroyed about 100 km of tunnels in an 11-day offensive. Hamas said just 5 per cent of its tunnel network was damaged. Each Hamas tunnel costs $3 million to build and has been constructed with the diversion of Israeli building material supplied for civilian construction in Gaza, according to the Israeli Defense Forces (IDF) website.“Every month, Israel transfers construction materials into Gaza intended for civil projects. These materials are co-opted by Hamas for tunnel construction,” says IDF. And when the Israeli military conducts a ground offensive, this network of tunnels is what Hamas terrorists will depend on and the Israeli soldiers will look out for.HOW ISRAEL WILL DEAL WITH HAMAS TUNNELS Hamas terrorists will use the tunnels both for defence and offence during the Israeli ground offensive, according to urban war expert John Spencer. He says Hamas would have by now stocked up the tunnels with food, water and essential items. This, apart from the weapons stockpiles it already has in place. These tunnels will help Hamas fighters avoid exhaustion in a war of attrition.“The tunnels will allow fighters to move between a series of fighting positions safely and freely under massive buildings, even after the IDF drop thousand-pound bombs on them,” says Spencer. For attacks, Spencer says, the tunnels will allow Hamas to conduct protected and surprise attacks from behind IDF positions. “Its fighters will form small hunter-killer teams that move underground, pop up, strike, and pop quickly back into a tunnel. Hamas also uses the tunnels to hide and move rockets,” he says.Entering these mazes of tunnels will pose a major challenge for Israeli soldiers. Troops will need special equipment depending on the depth and width of the tunnels. Even satellite-based communication and navigation tools might become ineffective.But the Israeli military has specialized units and munitions to deal with the tunnels.“There are specialized units like the IDF Combat Engineering Corps’s Yahalom Unit, an elite commando unit whose soldiers specialises in finding, clearing, and destroying tunnels,” says John Spencer of the Modern War Institute at West Point. The specialized IDF units have customized weapons for subterranean battles. The Israeli military also has its own canine unit, Oketz, with dogs trained for operating in tunnels.Israeli forces specializing in tunnel warfare are training intensively for the Gaza invasion and the training is being held in facilities built to imitate Hamas tunnels, according to reports.Israel has been using bunker-buster munitions but now has pressed into service the ‘Iron Sting’ laser and precision-guided mortar, according to The Jerusalem Post. The 'Iron Sting' has a range of 1-12 km and can penetrate double-reinforced concrete, the like of which Hamas uses to secure its tunnels. 
-Both sides know how best the tunnels can be used and are preparing for all eventualities. Israel has no uniform solution for the tunnels, says John Spencer, adding, “Given the scale and complexity of the underground infrastructure in Gaza, one thing is certain: overcoming the challenges posed by tunnels will require a lot of time.”Circling back to the lion and Gaza zoos. Once there were six zoos, two of them have closed, says a June 2023 Reuters report. The tunnels in Gaza couldn’t help sustain its zoos, which fell victim to a blocked, tattered economy. How long these tunnels sustain Hamas terrorists against a superior Israeli army is to be seen.Edited By: Yudhajit Published On: Oct 24, 2023You May Also Like 
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/world/story/israel-hamas-war-gaza-tunnel-network-danger-lurks-underground-for-israeli-forces-military-tunnels-idf-2452755-2023-10-24</t>
-  </si>
-  <si>
-    <t>Viral video shows pet dogs visiting Durga Puja pandal in Bengaluru. Internet reacts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you think dogs should be allowed to visit puja pandals? Well, that is one debatable question given the kind of headlines we read every day about rampant dog attacks. However, if you are a dog lover, this video could be of special significance to you. Firstly, it is an absolutely adorable clip. Secondly, the video poses a very important question to people, irrespective of the fact whether they love dogs or not. It shows two pet dogs, Oscar and Karma, visiting a Durga Puja pandal in Bengaluru to seek Goddess Durga’s blessings.The video was shared on Instagram account that is dedicated to pet dogs. They can be seen all dressed at a Durga Puja pandal where a priest first applies tika and then even feeds them some prasad. The pet parent shared the video and asked, “What do you think that dogs should be allowed or not?”Watch the video here: 
-The video triggered numerous reactions. “I'm a dog owner but I'm not stupid not everyone agrees on your idea to take your dogs anywhere you like,” a user wrote.“Why do we feel whatever is meant for humans is meant for dogs? I am a dog lover, but this is stretching it too far. Many devotees could have serious dogphobia or childhood trauma when they were bit by a stray dog. Do we eat dog food? Do we get treated by a vet? Give them love, take care of them. Dont make them do things they dont even understand,” another user said.See more reactions below: 
-What are your thoughts? Tell us in the comments section below.Edited By: Tiasa Bhowal Published On: Oct 24, 2023ALSO READ |  Old video of explorer stuck between narrow walls of a cave goes viralMust Watch 
-</t>
-  </si>
-  <si>
-    <t>trending-news</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/trending-news/story/viral-video-shows-pet-dogs-visiting-durga-puja-pandal-in-bengaluru-internet-reacts-2452977-2023-10-24</t>
+    <t>https://www.indiatoday.in/sports/cricket/story/south-africa-vs-australia-semifinal-score-kolkata-set-up-final-india-2463843-2023-11-16</t>
+  </si>
+  <si>
+    <t>Viral pic: Allu Sirish asks Jr NTR for a picture. He gets a tight hug instead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the country celebrated Diwali on November 12, the who's who of the Telugu film industry gathered at Megastar Chiranjeevi and Ram Charan's bash. Jr NTR, Mahesh Babu and several others made their presence. On November 16, Allu Sirish took to his social media pages to share an adorable picture with Jr NTR. In his caption, Sirish had only good things to say about the 'RRR' star. advertisementALLU SIRISH SHARES ADORABLE PHOTO WITH JR NTR Jr NTR, Mahesh Babu, Venkatesh and several others attended the Diwali party at Chiranjeevi and Ram Charan's home in Hyderabad. Photos from the bash went viral on social media. On November 16, Allu Sirish took to his social media pages to call Jr NTR 'kind' and shared a photo which was taken at the party. He wrote, "Friends, family or fans I see the same warmth and affection whenever someone asks Tarak anna for a photo. The most kind hearted. #deepavali2023 (sic)."
+Here's the photo: 
+ALLU SIRISH AND JR NTR'S UPCOMING FILMS Allu Sirish was last seen in 'Urvasivo Rakshasivo', which released in 2022. Reportedly, he is working on a film titled 'Buddy'. For the uninitiated. Sirish is Allu Arjun's younger brother. Jr NTR is presently shooting for director Koratala Siva's 'Devara', which will release in theatres on April 5. The actor was last seen in director SS Rajamouli's 'RRR' alongside Ram Charan.Published By: K JananiPublished On: Nov 17, 2023ALSO READ  |  Ram Charan to Jr NTR, here's how stars celebrated Diwali 2023
+Jr NTR, Mahesh Babu, Venkatesh and several others attended the Diwali party at Chiranjeevi and Ram Charan's home in Hyderabad. Photos from the bash went viral on social media. On November 16, Allu Sirish took to his social media pages to call Jr NTR 'kind' and shared a photo which was taken at the party. He wrote, "Friends, family or fans I see the same warmth and affection whenever someone asks Tarak anna for a photo. The most kind hearted. #deepavali2023 (sic)."
+Here's the photo: 
+ALLU SIRISH AND JR NTR'S UPCOMING FILMS Allu Sirish was last seen in 'Urvasivo Rakshasivo', which released in 2022. Reportedly, he is working on a film titled 'Buddy'. For the uninitiated. Sirish is Allu Arjun's younger brother. Jr NTR is presently shooting for director Koratala Siva's 'Devara', which will release in theatres on April 5. The actor was last seen in director SS Rajamouli's 'RRR' alongside Ram Charan.Published By: K JananiPublished On: Nov 17, 2023ALSO READ  |  Ram Charan to Jr NTR, here's how stars celebrated Diwali 2023
+Allu Sirish was last seen in 'Urvasivo Rakshasivo', which released in 2022. Reportedly, he is working on a film titled 'Buddy'. For the uninitiated. Sirish is Allu Arjun's younger brother. Jr NTR is presently shooting for director Koratala Siva's 'Devara', which will release in theatres on April 5. The actor was last seen in director SS Rajamouli's 'RRR' alongside Ram Charan.Published By: K JananiPublished On: Nov 17, 2023ALSO READ  |  Ram Charan to Jr NTR, here's how stars celebrated Diwali 2023
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/movies/regional-cinema/story/allu-sirish-jr-ntr-hug-diwali-bash-chiranjeevi-ram-charan-house-2463914-2023-11-17</t>
+  </si>
+  <si>
+    <t>Caught on camera: Leopard enters Tata Power complex in Maharashtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A leopard was captured on camera on Wednesday, roaming inside the premises of the Tata Power Company situated near Varap village on Maharashtra's Kalyan-Murbad Road.The CCTV footage, that went viral on social media, shows that the big cat was wandering on the campus between 1:00 AM and 1:30 AM. The company employees subsequently informed the forest department. 
+On receiving the information, the forest officials arrived at the site and found that the animal had already left the premises by the time they conducted their search during the night. After the big cat left, the forest officials conducted a thorough search operation but couldn't locate the animal.According to the forest officials, the leopard might have strayed into the area, which is surrounded by a forest, losing its way.The forest department further issued an advisory urging residents to remain vigilant and avoid venturing out alone at night.Additionally, to raise awareness about the presence of leopards in the nearby areas, the department placed banners in Varap village and surrounding areas.A dedicated team from the forest department has also been deployed to monitor the situation.With inputs from Mithilesh GuptaPublished By: Ashmita SahaPublished On: Nov 17, 2023READ |  Leopard enters residential area in Pune, rescued after being tranquilised | Watch
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/caught-on-camera-leopard-enters-tata-power-complex-maharashtra-kalyan-2463891-2023-11-17</t>
+  </si>
+  <si>
+    <t>Kerala man wins whopping Rs 45 crore in weekly lucky draw in UAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indians migrate to Dubai and other cities in the United Arab Emirates (UAE), dreaming of a prosperous future that they believe a well-paying job will ensure. But, many of them also try their luck with big-ticket lotteries and jackpots, the results of which can sometimes yield winnings as high as Rs 45-50 crores.Now, a 39-year-old control room operator in the oil and gas industry, Sreeju from Kerala, has won a whopping Rs 45 crore in the Mahzooz Saturday Millions draw held on Wednesday, leaving him "speechless, shocked, and surprised".He has been working in the Arab country for the past 11 years to build a better life and could not even build a home back in Kerala. Now, in a blink, everything has turned for the best."I was in my car about to drive around when I checked my Mahzooz account, and I couldn’t believe my eyes. I was confused about what to do when I saw my winnings. I waited for that call from Mahzooz to confirm that my winning was true," the Gulf News quoted Sreeju as saying.Sreeju’s is not a rare story. Many Indians have won big in UAE draws in the past. Last Saturday, another Keralite in the UAE, Sarath Sivadasan, won approximately Rs 11 lakh (Dh 50,000) in the Emirates Draw FAST5.Another man from Mumbai, Manoj Bhavsar, was also among the winners of the same draw. Bhavsar, 42, who has been working as an electronics technician for 16 years in Abu Dhabi, won about Rs 16 lakh (Dh 75,000) in the FAST5 raffle. He is now relieved he can finally settle a long-pending debt."I called my mother as soon as I received the congratulatory email, but I kept the news a secret for a while. Instead, I asked her to watch the Live draw stream, and the moment she saw my name on the screen, she yelled with joy," Bhavsar said.For the 60-year-old Anil Gianchandani, the prize money was USD 1 million in the Dubai Duty-Free Millennium Millionaire draw held weeks ago. The Dubai Duty-Free Millennium Millionaire was started in 1999, and Gianchandani is the 219th Indian national with USD 1 million in the draw.The UAE, which earlier had just two known big-ticket lucky draws, now has many of them, and the majority of the ticket purchasers are Indians. Those who are unable to afford costly tickets often buy them by pooling in the money.Unlike lotteries in Kerala, these UAE draws promise the full amount to the winner without any tax cut. The smooth and transparent process also makes them attractive among expats in Dubai, Abu Dhabi, Sharjah, and other cities.Published By: Ajmal Published On: Nov 16, 2023ALSO READ |  Dubai-based Indian driver wins lottery worth Rs 33 croreMust Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/kerala-man-sreenu-wins-rs-45-crore-mahzooz-saturday-millions-lucky-draw-in-uae-2463821-2023-11-16</t>
+  </si>
+  <si>
+    <t>Opinion: Madhya Pradesh polls - The many woes of Narendra Singh Tomar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the Bharatiya Janata Party (BJP) high command appointed Union Agriculture Minister Narendra Singh Tomar as the convener of its election management committee in poll-bound Madhya Pradesh in July, most interpreted it as a reward for the soft-spoken leader’s ability to work for the organisation while shunning the limelight himself.Two months later, the 66-year-old parliamentarian was asked to contest from Dimni, an Assembly segment that is part of the Morena constituency which he represents in the Lok Sabha, surprising everyone, including the man himself, who appeared to be clueless about the party’s scheme of things when he was expected to know better.Only a few hours before, he had shared the stage with Prime Minister Narendra Modi at the party’s Karyakarta Mahakumbh in Bhopal. By fielding him from a difficult seat in the Gwalior-Chambal region, the party had exposed him to the toughest battle of his political life that began when he was elected a councillor of the Gwalior Municipal Corporation in the 1980s. Tomar’s only solace was that he was not the sole Union minister or Lok Sabha member asked to contest the crucial state elections. Irrespective of whether the decision to field heavyweights betrayed the high command's nervousness or it was part of a grand strategy, it definitely left him nonplussed.A wedge between Jai and VeeruWhat warmed the cockles of Tomar’s heart was the implicit suggestion that he was in the chief ministerial race. Portraying Tomar’s candidature as the writing on the wall for the incumbent Chief Minister Shivraj Singh Chouhan, the Congress party tried to drive a wedge between the two leaders.For a long time before the elections had been announced, media and political watchers had speculated that Chouhan would be removed to neutralise the inevitable anti-incumbency built over his four terms -- including two consecutive five-year terms -- in office beginning November 2005. When the talks revolved around Chouhan’s successor, Tomar’s name figured among the top contenders.Tomar and Chouhan had a great working equation. Ahead of the 2008 and 2013 Assembly elections, the party made Tomar the state BJP president. With Chouhan as the CM face and Tomar as the state president, the two leaders not only enjoyed working together but also delivered for the party. Only recently, Tomar described him and Chouhan as “Jai-Veeru ki jodi”, characters played by Amitabh Bachchan and Dharmendra in the blockbuster movie 'Sholay'.Sins of the son“I am a loyal worker, bound by the party’s principles. I will carry out any duty assigned to me by the party,” are among Tomar’s stock replies to awkward queries from the media. But the low-profile leader chose to prevaricate when confronted with questions about the controversial videos purportedly involving his son making deals running into hundreds of crores.The two videos surfaced towards the fag end of campaigning in Madhya Pradesh where votes will be polled on November 17. It’s unclear when the videos were shot, or if they are genuine, but a third video shows a man identifying himself as the person with whom the minister’s son is talking in the first two. In a way, he verifies the first two videos and offers to appear before investigating agencies with evidence.Predictably, the minister and the BJP have dismissed the videos as fake and dubbed them a conspiracy hatched by the Congress to damage the ruling party’s prospects days before the voting day. The BJP has called it an attempt to divert attention from the Mahadev App betting scandal allegedly involving Chhattisgarh Chief Minister Bhupesh Baghel.While the Enforcement Directorate is investigating the Chhattisgarh case, an FIR has been lodged in connection with the MP videos. But the investigation has reached nowhere so far. The minister has sought the Central Forensic Science Laboratory to examine the videos to know their veracity.Conspiracy, conspiracy!Invariably, conspiracy theories involving players other than the Congress party have emerged. Rumour mills and conspiracy theorists have had a field day with many calling the sudden emergence of the videos an inside job. While some have stretched their imagination to involve the central leadership, most are not willing to look beyond the state players.Incidentally, the videos emerged on the day a leading vernacular paper carried an interview with Tomar. Though a man of few words, the former mining minister had said a few things that unwittingly appeared to give away a possible central role for a prominent state leader, irrespective of the verdict on December 3.Adding to woesThe leaked videos have compounded the worries of the minister who appears to have been caught in a triangular contest in Dimni, a very weak Assembly seat to begin with. Added to that is his unwillingness to contest an Assembly election. It took Tomar more than two weeks to even visit the constituency after tickets were announced. The BJP had not only lost the seat in the 2018 Assembly elections but also in the by-election in 2020. The by-elections were caused by the revolt led by Jyotiraditya Scindia, who defected to the BJP with a clutch of supporters, bringing down the Kamal Nath government in early 2020.The presence of a strong Bahujan Samaj Party candidate made the contest more difficult for the Union minister. Balvir Dandotiya, a Brahmin, is expected to attract not only the upper caste votes but also the traditional voters of the Uttar Pradesh-based party. Tomar’s direct fight is with Congress candidate and incumbent MLA Ravindra Singh Tomar. The purported videos have given an edge to the Congress campaign not just in Dimni but the entire state.When the BJP fielded seven Lok Sabha members, including three ministers, and a national general secretary, it argued that the presence of senior leaders would not only help win the particular seat but also the adjoining seats, perhaps even impact the region. Tomar’s supporters argue that it’s easier said than done.(Milind Ghatwai is a freelance journalist with over three decades of experience) (Views expressed in this opinion piece are that of the author.)Published By: Raya GhoshPublished On: Nov 16, 2023ALSO READ:  |  Shivraj Chouhan and his 'Ladli Behna' finally get poll limelight in Madhya PradeshMust Watch 
+</t>
+  </si>
+  <si>
+    <t>opinion</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/opinion/story/opinion-madhya-pradesh-polls-the-many-woes-of-narendra-singh-tomar-2463717-2023-11-16</t>
+  </si>
+  <si>
+    <t>Mukesh and Nita Ambani host David Beckham at their Mumbai residence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Sonam Kapoor and Anand Ahuja organised a grand party for David Beckham at their home in Mumbai, the Ambanis hosted the football legend at their residence on November 16.For the meet and greet at their house, Mukesh Ambani, Nita Ambani, Akash Ambani, Shloka Mehta and Radhika Merchant posed with David Beckham for a picture in Antilia.Nita Ambani wore an ivory kurta set with a slight tone-on-tone embroidery that she matched with a dupatta. Meanwhile, Isha Ambani kept it simple with an easy breezy peplum top with wide-legged jeans. Shloka Mehta opted for comfort fashion by wearing a lavender voluminous dress and stylish flats.Radhika Merchant, who is Anant Ambani's fiance, wore a sleeveless turtleneck top with floral white pants and matching coloured flats. 
+The Ambanis hosted David Beckham at their house in Mumbai.
+The Ambanis presented Beckham with a Mumbai Indians jersey, which had the footballer's signature jersey number - 7.    Sonam Kapoor and Anand Ahuja hosted David Beckham at their house the previous day with celebrities like Shahid Kapoor, Mira Rajput, Malaika Arora, Arjun Kapoor, Karisma Kapoor, Shanaya Kapoor and others.
+Sonam Kapoor and Anand Ahuja with David Beckham. (Photo: Yogen Shah)
+Shah Rukh Khan is also set to host the English footballer at his house, Mannat, today. Alia Bhatt, Salman Khan and Karan Johar, among other celebs, are expected to attend.David Beckham turned up at Wankhede Stadium to watch the ICC Men's World Cup semi-final match of India vs New Zealand on Wednesday (November 15). The football legend is on a three-day visit to India as a UNICEF Goodwill Ambassador.Published By: Daphne ClarancePublished On: Nov 16, 2023ALSO READ |  What Bollywood wore to meet David Beckham at Sonam Kapoor’s partyTrending Reel 
+Shah Rukh Khan is also set to host the English footballer at his house, Mannat, today. Alia Bhatt, Salman Khan and Karan Johar, among other celebs, are expected to attend.David Beckham turned up at Wankhede Stadium to watch the ICC Men's World Cup semi-final match of India vs New Zealand on Wednesday (November 15). The football legend is on a three-day visit to India as a UNICEF Goodwill Ambassador.Published By: Daphne ClarancePublished On: Nov 16, 2023ALSO READ |  What Bollywood wore to meet David Beckham at Sonam Kapoor’s partyTrending Reel 
+</t>
+  </si>
+  <si>
+    <t>lifestyle</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/lifestyle/celebrity/story/mukesh-and-nita-ambani-host-david-beckham-at-their-mumbai-residence-with-akash-ambani-shloka-mehta-radhika-merchant-2463783-2023-11-16</t>
+  </si>
+  <si>
+    <t>Kamal Haasan thanks Alphonse for birthday wishes, asks him to take care of his health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamal Haasan turned 69 years old on November 7. Alphonse Puthren created a special song for him to wish him on his birthday. He contacted Parthiban asking him to send it to Kamal Haasan. To his surprise, the 'Indian 2' actor listened to the song and sent a voice note for Alphonse. He urged him to take care of his health. For the uninitiated, Alphonse, in a now-deleted post, informed everyone that he was suffering with Autism Spectrum Disorder. advertisementKAMAL HAASAN ASKS ALPHONSE TO TAKE CARE OF HIS HEALTH Alphonse Puthren had announced that he would quit films because of his health. However, he deleted the post, after which he received a lot of messages from celebrities and fans. For Kamal Haasan's birthday, Alphonse had recorded a song for him in his voice and reached out to Parthiban asking if he could send it to him. He also told him that he tried different ways to send his song to Kamal Haasan and failed. To his surprise, Kamal Haasan heard Alphonse's song and sent a voice note through Parthiban. In the voice note, the 'Vikram' star said, "I heard Alphonse Puthren's song. I heard that he was not doing well health-wise. But, it looks like he is doing well mentally. His voice reflects that. I wish him happiness. Even though he has taken the decision [of quitting films], let him take care of his health. Take care, Alphonse. Take care."Alphonse Puthren had announced that he would quit films because of his health. However, he deleted the post, after which he received a lot of messages from celebrities and fans. For Kamal Haasan's birthday, Alphonse had recorded a song for him in his voice and reached out to Parthiban asking if he could send it to him. He also told him that he tried different ways to send his song to Kamal Haasan and failed. To his surprise, Kamal Haasan heard Alphonse's song and sent a voice note through Parthiban. In the voice note, the 'Vikram' star said, "I heard Alphonse Puthren's song. I heard that he was not doing well health-wise. But, it looks like he is doing well mentally. His voice reflects that. I wish him happiness. Even though he has taken the decision [of quitting films], let him take care of his health. Take care, Alphonse. Take care."Here's the voice note: 
+ON THE WORK FRONT FOR KAMAL HAASAN Kamal Haasan is waiting for the release of his upcoming film, 'Indian 2', with director Shankar. The film will release in theatres in 2023. Recently, he also hinted that 'Indian 3' is also in the works. Meanwhile, he has kickstarted the shooting of Mani Ratnam's 'Thug Life'. Recently, a promo was unveiled marking Kamal Haasan's birthday and it was a huge hit among fans. Apart from 'Thug Life', Kamal Haasan announced a film with H Vinoth and 'Vikram 2' with Lokesh Kanagaraj. Published By: K JananiPublished On: Nov 17, 2023ALSO READ  |  'Premam' director Alphonse Puthren announces exit from films, deletes post laterMust Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/movies/regional-cinema/story/kamal-haasan-thanks-alphonse-puthren-birthday-wishes-health-autism-syndrome-2463906-2023-11-17</t>
+  </si>
+  <si>
+    <t>Israel's attempts to minimise Gaza civilian casualties 'not successful': Netanyahu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel is doing all it can to get civilians out of harm's way as it battles Hamas in Gaza, including dropping leaflets warning them to flee, but its attempts to minimise casualties were "not successful", Prime Minister Benjamin Netanyahu said on Thursday.Netanyahu was asked by US television's CBS News whether Israel's killing of thousands of Palestinians as it retaliates for the October 7 attack by Gaza's ruling Hamas militants would fuel a new generation of hatred."Any civilian death is a tragedy. And we shouldn't have any because we're doing everything we can to get the civilians out of harm's way, while Hamas is doing everything to keep them in harm's way," Netanyahu said."So we send leaflets, (we) call them on their cell phones, and we say: 'leave'. And many have left," Netanyahu said.Israel has said the goal of its military campaign is to destroy Hamas."The other thing that I can say is that we'll try to finish that job with minimal civilian casualties. That's what we're trying to do: minimal civilian casualties. But unfortunately, we're not successful."Netanyahu then said he wanted to draw a parallel with something related to Germany, but he was interrupted by the CBS interviewer, who asked him a question about Gaza's post-war security.Palestinian civilians have borne the brunt of Israel's weeks-long military campaign in response to the attack by Hamas that Israel says killed 1,200 people, mostly civilians. Hamas also took about 240 people of different nationalities as hostages, according to Israel.Gaza health authorities deemed reliable by the United Nations said at least 11,500 people have been confirmed killed in an Israeli bombardment and ground invasion - more than 4,700 of them children.Two-thirds of the Gaza Strip's population of 2.3 million have been made homeless by the war. On Thursday, Israel's air force dropped leaflets in parts of south Gaza telling people to evacuate for their own safety.Israel has also used leaflet drops in northern Gaza to warn civilians to move. Hundreds of thousands have done so, in a mass displacement that many Palestinians fear could become permanent.Published By: Vani MehrotraPublished On: Nov 17, 2023ALSO READ  |  'Not Israel, but...': Netanyahu vs Trudeau on strikes, civilian killings in GazaALSO READ  |  Hamas refused fuel offer for Gaza's hospital, says Netanyahu; Al-Shifa 'not working'
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/world/story/israel-hamas-war-benjamin-netanyahu-says-israel-not-successful-in-minimising-gaza-civilian-casualties-2463903-2023-11-17</t>
+  </si>
+  <si>
+    <t>David Beckham speaks to Sara Ali Khan, reacts to Victoria's working class comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On November 16, Bollywood actor Sara Ali Khan engaged in a conversation with the legendary footballer David Beckham at the Meta office in Mumbai. They delved into Beckham's dedication to social responsibility and his life journey. They also spoke about his Netflix documentary, 'Beckham'.SARA ALI KHAN AND DAVID BECKHAM INDULGE IN A CONVERSATION Sara Ali Khan and David Beckham had a discussion at the Meta office in Mumbai. Their conversation, which has been shared on social media, covered social responsibility, Beckham's life, and his Netflix documentary. Sara praised Beckham for his work-life balance and his ability to maintain his family life despite his fame. In the clip, Sara said, “If one is as big a celebrity as you are, it could get difficult to be seen as a human being. There is so much glamour, there is so much pressure that sometimes it’s difficult to see who you are and I think for your family and children, there is this beautiful personal peace.”Beckham responded to Sara by saying, “Thank you for saying that and I don’t think it has been explained and talked about like this. It’s a perfect description.”Speaking about his Netflix documentary he said, “I did a documentary with Victoria where she talked about being working class (laughs)â€æ but the thing about that scene was that we were filming and Victoria never watched the stuff that I did and I didn’t watch what she did. So, I took my headphones on and I knew the stuff that she was going to say but then I felt that ‘this is my moment’ and it was quite a funny moment.”
+it's insane how #SaraAliKhan can converse soo eloquently, both in English and Hindi. She got this confident, graceful, super intellectual and impactful demeanour, which always brings her out as a much better and wiser person than all others in the race. pic.twitter.com/wtXGx4KQMb
+— sakt` (@SarTikFied) November 16, 2023
+it's insane how #SaraAliKhan can converse soo eloquently, both in English and Hindi. She got this confident, graceful, super intellectual and impactful demeanour, which always brings her out as a much better and wiser person than all others in the race. pic.twitter.com/wtXGx4KQMb
+— sakt` (@SarTikFied) November 16, 2023During his conversation with Sara, Beckham opened up about various aspects of his personal life. He revealed that though he became a successful football player, his parents didn’t stop working until their 70s. He said, “My mum was a hairdresser and she worked till she was 70 years old. She still cuts some old ladies’ hair. My father was a gas fitter and he also worked till he was 75. So they are hardworking people.ABOUT HIS DOCUMENTARYDavid Beckham discussed his documentary, explaining that it took several years and the right team to make. According to Netflix, the official synopsis of 'Beckham' says, "With never-before-seen footage, this docuseries follows David Beckham's meteoric rise from humble beginnings to global football stardom."The film covers difficult moments in his life and career, and was made primarily for his family to have a comprehensive view of his life's journey.Published By: Trisha BhattacharyaPublished On: Nov 16, 2023ALSO READ |  Pic: Sara Ali Khan celebrates Bhai Dooj with brother Ibrahim Ali Khan
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/movies/celebrities/story/david-beckham-speaks-to-sara-ali-khan-reacts-to-victoria-beckhams-working-class-comment-in-beckham-documentary-2463809-2023-11-16</t>
+  </si>
+  <si>
+    <t>Aishwarya, Abhishek shower love on 'little princess' Aaradhya on 12th birthday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaradhya Bachchan turned 12 years old on November 16. She was born to Aishwarya Rai and Abhishek Bachchan in 2011. As their daughter turned a year older, the two popular Bollywood stars took to social media to dedicate a heartfelt post for their 'little princess'. They also shared childhood photos of Aaradhya along with cute notes.advertisementAISHWARYA RAI TELLS AARADHYA: I LOVE YOU MOSTEST!Aishwarya Rai is often accompanied by her daughter, Aaradhya whereever she goes. On her 12th birthday, Aishwarya took to her Instagram account to post an adorable selfie with her daughter from childhood. In the photo, Aishwarya can be seen wearing a black outfit as she smiles with little Aaradhya in her arms.Sharing the photo, Aishwarya wrote in the caption, "I LOVE YOU infinitely, unconditionally, forever and beyond my darling Angel Aaradhya. You are the absolute love of my life. I breathe for you. my soul. HAPPY HAPPY HAPPIEST 12th BIRTHDAY. God Bless you always ALLWAYS. Thank you for being YOU. precious love. I love you the mostestestestestestestestestestestestest. You are the bestestestestestestestestestestestest (sic)."Check it out: 
+ABHISHEK CALLS AARADHYA HIS 'LITTLE PRINCESS'Abhishek Bachchan also posted an adorable throwback picture with Aaradhya on his Instagram account. In the photo, baby Aaradhya can be seen sitting on her father's lap while looking at him affectionately. The picture seems to be taken at an event. Abhishek's caption read, “Happy birthday my little princess! I love you mostest (sic).” Check it out: 
+Abhishek Bachchan and Aishwarya Rai Bachchan got married in April 2007. They had their first child, Aaradhya Bachchan, in 2011. Published By: Grace Cyril Published On: Nov 17, 2023ALSO READ |  Aishwarya Rai Bachchan to give IIFA 2023 a miss due to Aaradhya’s school. Read detailsMust Watch 
+Aishwarya Rai is often accompanied by her daughter, Aaradhya whereever she goes. On her 12th birthday, Aishwarya took to her Instagram account to post an adorable selfie with her daughter from childhood. In the photo, Aishwarya can be seen wearing a black outfit as she smiles with little Aaradhya in her arms.Sharing the photo, Aishwarya wrote in the caption, "I LOVE YOU infinitely, unconditionally, forever and beyond my darling Angel Aaradhya. You are the absolute love of my life. I breathe for you. my soul. HAPPY HAPPY HAPPIEST 12th BIRTHDAY. God Bless you always ALLWAYS. Thank you for being YOU. precious love. I love you the mostestestestestestestestestestestestest. You are the bestestestestestestestestestestestest (sic)."Check it out: 
+ABHISHEK CALLS AARADHYA HIS 'LITTLE PRINCESS'Abhishek Bachchan also posted an adorable throwback picture with Aaradhya on his Instagram account. In the photo, baby Aaradhya can be seen sitting on her father's lap while looking at him affectionately. The picture seems to be taken at an event. Abhishek's caption read, “Happy birthday my little princess! I love you mostest (sic).” Check it out: 
+Abhishek Bachchan and Aishwarya Rai Bachchan got married in April 2007. They had their first child, Aaradhya Bachchan, in 2011. Published By: Grace Cyril Published On: Nov 17, 2023ALSO READ |  Aishwarya Rai Bachchan to give IIFA 2023 a miss due to Aaradhya’s school. Read detailsMust Watch 
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/movies/celebrities/story/aishwarya-rai-abhishek-bachchan-shower-love-on-little-princess-aaradhya-bachchan-on-12th-birthday-2463920-2023-11-17</t>
   </si>
 </sst>
 </file>
@@ -704,21 +699,21 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -732,7 +727,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -746,206 +741,206 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
